--- a/kensho/daytime.xlsx
+++ b/kensho/daytime.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="18">
   <si>
     <t>daytime_0.2</t>
     <phoneticPr fontId="1"/>
@@ -112,6 +112,106 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10時じゃ遅い？</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動意薄。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7時～8時で価格チェック</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→過去チャートを見る限り8時で良いかも</t>
+    <rPh sb="1" eb="3">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7時～9時でもよいかも</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前日の流れをそのまま引き継ぐようにも見える</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンジツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→前日の7時～7時の流れを見て、そのままついていくようにやってみる</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンジツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -457,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -564,6 +664,9 @@
       <c r="I4" s="2">
         <v>-8.1500000000000003E-2</v>
       </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -590,6 +693,9 @@
       <c r="I5" s="2">
         <v>-0.28799999999999998</v>
       </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -616,6 +722,9 @@
       <c r="I6" s="2">
         <v>-6.6500000000000004E-2</v>
       </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -642,6 +751,9 @@
       <c r="I7" s="2">
         <v>-0.08</v>
       </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -668,6 +780,9 @@
       <c r="I8">
         <v>0.217</v>
       </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -7533,7 +7648,7 @@
         <v>-0.34799999999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>43174.415995370371</v>
       </c>
@@ -7559,7 +7674,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>43175.416006944448</v>
       </c>
@@ -7585,7 +7700,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>43178.415972222225</v>
       </c>
@@ -7611,7 +7726,7 @@
         <v>0.36849999999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>43179.415972222225</v>
       </c>
@@ -7637,7 +7752,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>43180.415972222225</v>
       </c>
@@ -7662,8 +7777,11 @@
       <c r="I277">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J277" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>43181.415972222225</v>
       </c>
@@ -7688,8 +7806,11 @@
       <c r="I278" s="2">
         <v>-0.17249999999999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J278" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>43182.415983796294</v>
       </c>
@@ -7714,8 +7835,11 @@
       <c r="I279" s="2">
         <v>-0.14199999999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>43185.415972222225</v>
       </c>
@@ -7739,6 +7863,9 @@
       </c>
       <c r="I280" s="2">
         <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="J280" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/kensho/daytime.xlsx
+++ b/kensho/daytime.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Z$1:$Z$280</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="25">
   <si>
     <t>daytime_0.2</t>
     <phoneticPr fontId="1"/>
@@ -215,6 +215,73 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>利益</t>
+    <rPh sb="0" eb="2">
+      <t>リエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">start_price </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>current_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差額</t>
+    <rPh sb="0" eb="2">
+      <t>サガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前日7時～当日7時の値動きで決定するバージョン</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンジツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ネウゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★それなりにうまくっている。差額を見るだけでは敗因分析できない</t>
+    <rPh sb="14" eb="16">
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -237,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +346,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L280"/>
+  <dimension ref="A1:AB280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -568,17 +647,26 @@
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="20" max="20" width="16.88671875" customWidth="1"/>
+    <col min="21" max="21" width="18.21875" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="4"/>
+    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.21875" customWidth="1"/>
+    <col min="27" max="27" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -609,8 +697,35 @@
       <c r="L2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42795.415972222225</v>
       </c>
@@ -638,8 +753,32 @@
       <c r="L3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T3" s="1">
+        <v>42795.332638888889</v>
+      </c>
+      <c r="U3" s="1">
+        <v>42795.426504629628</v>
+      </c>
+      <c r="V3" s="2">
+        <v>-0.50900000000000001</v>
+      </c>
+      <c r="W3">
+        <v>140.22649999999999</v>
+      </c>
+      <c r="X3">
+        <v>139.66999999999999</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>-0.55649999999999999</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42796.415972222225</v>
       </c>
@@ -667,8 +806,32 @@
       <c r="L4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T4" s="1">
+        <v>42796.332766203705</v>
+      </c>
+      <c r="U4" s="1">
+        <v>42796.624548611115</v>
+      </c>
+      <c r="V4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="W4">
+        <v>139.62799999999999</v>
+      </c>
+      <c r="X4">
+        <v>139.89850000000001</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0.27050000000000002</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42797.415983796294</v>
       </c>
@@ -696,8 +859,32 @@
       <c r="L5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T5" s="1">
+        <v>42797.332997685182</v>
+      </c>
+      <c r="U5" s="1">
+        <v>42797.624780092592</v>
+      </c>
+      <c r="V5" s="2">
+        <v>-0.313</v>
+      </c>
+      <c r="W5">
+        <v>139.81549999999999</v>
+      </c>
+      <c r="X5">
+        <v>140.3545</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42800.415972222225</v>
       </c>
@@ -725,8 +912,32 @@
       <c r="L6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T6" s="1">
+        <v>42800.332638888889</v>
+      </c>
+      <c r="U6" s="1">
+        <v>42800.624421296299</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0.313</v>
+      </c>
+      <c r="W6">
+        <v>140.36850000000001</v>
+      </c>
+      <c r="X6">
+        <v>140.2235</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42801.415983796294</v>
       </c>
@@ -754,8 +965,32 @@
       <c r="L7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T7" s="1">
+        <v>42801.332870370374</v>
+      </c>
+      <c r="U7" s="1">
+        <v>42801.624652777777</v>
+      </c>
+      <c r="V7">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="W7">
+        <v>139.98400000000001</v>
+      </c>
+      <c r="X7">
+        <v>139.48750000000001</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>-0.4965</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42802.415995370371</v>
       </c>
@@ -783,8 +1018,32 @@
       <c r="L8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T8" s="1">
+        <v>42802.333101851851</v>
+      </c>
+      <c r="U8" s="1">
+        <v>42802.624884259261</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="W8">
+        <v>139.34700000000001</v>
+      </c>
+      <c r="X8">
+        <v>139.14500000000001</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>-0.20200000000000001</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42803.415995370371</v>
       </c>
@@ -809,8 +1068,32 @@
       <c r="I9" s="2">
         <v>-0.18099999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T9" s="1">
+        <v>42803.332638888889</v>
+      </c>
+      <c r="U9" s="1">
+        <v>42803.624421296299</v>
+      </c>
+      <c r="V9" s="2">
+        <v>-5.3499999999999999E-2</v>
+      </c>
+      <c r="W9">
+        <v>139.0625</v>
+      </c>
+      <c r="X9">
+        <v>139.26150000000001</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42804.416006944448</v>
       </c>
@@ -835,8 +1118,29 @@
       <c r="I10">
         <v>0.26450000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T10" s="1">
+        <v>42804.332766203705</v>
+      </c>
+      <c r="U10" s="1">
+        <v>42804.624548611115</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0.374</v>
+      </c>
+      <c r="W10">
+        <v>139.19300000000001</v>
+      </c>
+      <c r="X10">
+        <v>139.93199999999999</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0.73899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42807.415972222225</v>
       </c>
@@ -861,8 +1165,29 @@
       <c r="I11">
         <v>2.2499999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T11" s="1">
+        <v>42807.332638888889</v>
+      </c>
+      <c r="U11" s="1">
+        <v>42807.624421296299</v>
+      </c>
+      <c r="V11" s="2">
+        <v>-3.2500000000000001E-2</v>
+      </c>
+      <c r="W11">
+        <v>139.87799999999999</v>
+      </c>
+      <c r="X11">
+        <v>139.7415</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>-0.13650000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42808.415972222225</v>
       </c>
@@ -887,8 +1212,29 @@
       <c r="I12">
         <v>5.5500000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T12" s="1">
+        <v>42808.332766203705</v>
+      </c>
+      <c r="U12" s="1">
+        <v>42808.624548611115</v>
+      </c>
+      <c r="V12" s="2">
+        <v>-0.1865</v>
+      </c>
+      <c r="W12">
+        <v>139.68549999999999</v>
+      </c>
+      <c r="X12">
+        <v>140.358</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0.67249999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42809.415972222225</v>
       </c>
@@ -913,8 +1259,29 @@
       <c r="I13">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T13" s="1">
+        <v>42809.33289351852</v>
+      </c>
+      <c r="U13" s="1">
+        <v>42809.624675925923</v>
+      </c>
+      <c r="V13" s="2">
+        <v>-0.38800000000000001</v>
+      </c>
+      <c r="W13">
+        <v>140.35300000000001</v>
+      </c>
+      <c r="X13">
+        <v>139.38249999999999</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>-0.97050000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42810.415972222225</v>
       </c>
@@ -939,8 +1306,29 @@
       <c r="I14">
         <v>3.4500000000000003E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T14" s="1">
+        <v>42810.333020833335</v>
+      </c>
+      <c r="U14" s="1">
+        <v>42810.624803240738</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.48349999999999999</v>
+      </c>
+      <c r="W14">
+        <v>139.47</v>
+      </c>
+      <c r="X14">
+        <v>139.45699999999999</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42811.415972222225</v>
       </c>
@@ -965,8 +1353,29 @@
       <c r="I15" s="2">
         <v>-0.10199999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="T15" s="1">
+        <v>42811.333252314813</v>
+      </c>
+      <c r="U15" s="1">
+        <v>42811.624340277776</v>
+      </c>
+      <c r="V15">
+        <v>3.0000000000099999E-3</v>
+      </c>
+      <c r="W15">
+        <v>139.46299999999999</v>
+      </c>
+      <c r="X15">
+        <v>140.06399999999999</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42814.415972222225</v>
       </c>
@@ -991,8 +1400,29 @@
       <c r="I16" s="2">
         <v>-0.155</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T16" s="1">
+        <v>42814.332638888889</v>
+      </c>
+      <c r="U16" s="1">
+        <v>42814.624421296299</v>
+      </c>
+      <c r="V16">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="W16">
+        <v>140.04750000000001</v>
+      </c>
+      <c r="X16">
+        <v>139.66300000000001</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <v>-0.38450000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42815.415983796294</v>
       </c>
@@ -1017,8 +1447,29 @@
       <c r="I17">
         <v>0.25750000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T17" s="1">
+        <v>42815.332870370374</v>
+      </c>
+      <c r="U17" s="1">
+        <v>42815.624652777777</v>
+      </c>
+      <c r="V17" s="2">
+        <v>-0.22950000000000001</v>
+      </c>
+      <c r="W17">
+        <v>139.56899999999999</v>
+      </c>
+      <c r="X17">
+        <v>139.1095</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>-0.45950000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42816.415983796294</v>
       </c>
@@ -1043,8 +1494,29 @@
       <c r="I18" s="2">
         <v>-0.20349999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T18" s="1">
+        <v>42816.332997685182</v>
+      </c>
+      <c r="U18" s="1">
+        <v>42816.624780092592</v>
+      </c>
+      <c r="V18">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="W18">
+        <v>139.04300000000001</v>
+      </c>
+      <c r="X18">
+        <v>139.1105</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42817.415995370371</v>
       </c>
@@ -1069,8 +1541,29 @@
       <c r="I19">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T19" s="1">
+        <v>42817.333229166667</v>
+      </c>
+      <c r="U19" s="1">
+        <v>42817.62431712963</v>
+      </c>
+      <c r="V19" s="2">
+        <v>-0.25950000000000001</v>
+      </c>
+      <c r="W19">
+        <v>139.429</v>
+      </c>
+      <c r="X19">
+        <v>138.8355</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19">
+        <v>-0.59350000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42818.415995370371</v>
       </c>
@@ -1095,8 +1588,29 @@
       <c r="I20">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T20" s="1">
+        <v>42818.332662037035</v>
+      </c>
+      <c r="U20" s="1">
+        <v>42818.624444444446</v>
+      </c>
+      <c r="V20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W20">
+        <v>138.85</v>
+      </c>
+      <c r="X20">
+        <v>138.95750000000001</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42821.415972222225</v>
       </c>
@@ -1121,8 +1635,29 @@
       <c r="I21" s="2">
         <v>-7.1499999999999994E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T21" s="1">
+        <v>42821.332638888889</v>
+      </c>
+      <c r="U21" s="1">
+        <v>42821.624421296299</v>
+      </c>
+      <c r="V21">
+        <v>0.187</v>
+      </c>
+      <c r="W21">
+        <v>138.91849999999999</v>
+      </c>
+      <c r="X21">
+        <v>138.351</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <v>-0.5675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42822.415983796294</v>
       </c>
@@ -1147,8 +1682,29 @@
       <c r="I22" s="2">
         <v>-0.1065</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T22" s="1">
+        <v>42822.332870370374</v>
+      </c>
+      <c r="U22" s="1">
+        <v>42822.624652777777</v>
+      </c>
+      <c r="V22" s="2">
+        <v>-5.7500000000000002E-2</v>
+      </c>
+      <c r="W22">
+        <v>138.64349999999999</v>
+      </c>
+      <c r="X22">
+        <v>138.959</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0.3155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42823.415995370371</v>
       </c>
@@ -1173,8 +1729,29 @@
       <c r="I23">
         <v>7.0499999999999993E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T23" s="1">
+        <v>42823.332997685182</v>
+      </c>
+      <c r="U23" s="1">
+        <v>42823.624780092592</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="W23">
+        <v>138.96950000000001</v>
+      </c>
+      <c r="X23">
+        <v>138.42850000000001</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>-0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42824.416006944448</v>
       </c>
@@ -1199,8 +1776,29 @@
       <c r="I24" s="2">
         <v>-0.1915</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T24" s="1">
+        <v>42824.333229166667</v>
+      </c>
+      <c r="U24" s="1">
+        <v>42824.442372685182</v>
+      </c>
+      <c r="V24" s="2">
+        <v>-0.51549999999999996</v>
+      </c>
+      <c r="W24">
+        <v>138.36250000000001</v>
+      </c>
+      <c r="X24">
+        <v>138.21</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>-0.1525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42825.416018518517</v>
       </c>
@@ -1225,8 +1823,29 @@
       <c r="I25" s="2">
         <v>-0.371</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T25" s="1">
+        <v>42825.332662037035</v>
+      </c>
+      <c r="U25" s="1">
+        <v>42825.624444444446</v>
+      </c>
+      <c r="V25">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="W25">
+        <v>138.113</v>
+      </c>
+      <c r="X25">
+        <v>139.505</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1.3919999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42828.415972222225</v>
       </c>
@@ -1251,8 +1870,29 @@
       <c r="I26" s="2">
         <v>-0.14599999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T26" s="1">
+        <v>42828.332638888889</v>
+      </c>
+      <c r="U26" s="1">
+        <v>42828.624421296299</v>
+      </c>
+      <c r="V26">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="W26">
+        <v>139.48349999999999</v>
+      </c>
+      <c r="X26">
+        <v>139.72300000000001</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>0.23949999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42829.415983796294</v>
       </c>
@@ -1277,8 +1917,29 @@
       <c r="I27">
         <v>0.63600000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T27" s="1">
+        <v>42829.332870370374</v>
+      </c>
+      <c r="U27" s="1">
+        <v>42829.598263888889</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1.137</v>
+      </c>
+      <c r="W27">
+        <v>139.68950000000001</v>
+      </c>
+      <c r="X27">
+        <v>138.44649999999999</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27">
+        <v>-1.2430000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42830.415983796294</v>
       </c>
@@ -1303,8 +1964,29 @@
       <c r="I28" s="2">
         <v>-2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T28" s="1">
+        <v>42830.333101851851</v>
+      </c>
+      <c r="U28" s="1">
+        <v>42830.624884259261</v>
+      </c>
+      <c r="V28">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="W28">
+        <v>138.39599999999999</v>
+      </c>
+      <c r="X28">
+        <v>137.84450000000001</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28">
+        <v>-0.55149999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42831.415995370371</v>
       </c>
@@ -1329,8 +2011,29 @@
       <c r="I29">
         <v>0.14149999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T29" s="1">
+        <v>42831.332638888889</v>
+      </c>
+      <c r="U29" s="1">
+        <v>42831.624421296299</v>
+      </c>
+      <c r="V29" s="2">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="W29">
+        <v>137.7775</v>
+      </c>
+      <c r="X29">
+        <v>137.971</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>0.19350000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42832.415995370371</v>
       </c>
@@ -1355,8 +2058,29 @@
       <c r="I30" s="2">
         <v>-0.55900000000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T30" s="1">
+        <v>42832.332766203705</v>
+      </c>
+      <c r="U30" s="1">
+        <v>42832.428715277776</v>
+      </c>
+      <c r="V30" s="2">
+        <v>-0.53</v>
+      </c>
+      <c r="W30">
+        <v>138.02600000000001</v>
+      </c>
+      <c r="X30">
+        <v>138.18049999999999</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>0.1545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42835.415972222225</v>
       </c>
@@ -1381,8 +2105,29 @@
       <c r="I31">
         <v>0.14249999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T31" s="1">
+        <v>42835.332638888889</v>
+      </c>
+      <c r="U31" s="1">
+        <v>42835.624421296299</v>
+      </c>
+      <c r="V31" s="2">
+        <v>-0.32600000000000001</v>
+      </c>
+      <c r="W31">
+        <v>138.20750000000001</v>
+      </c>
+      <c r="X31">
+        <v>137.71199999999999</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>-0.4955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42836.415972222225</v>
       </c>
@@ -1407,8 +2152,29 @@
       <c r="I32" s="2">
         <v>-0.152</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T32" s="1">
+        <v>42836.332766203705</v>
+      </c>
+      <c r="U32" s="1">
+        <v>42836.624548611115</v>
+      </c>
+      <c r="V32" s="2">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="W32">
+        <v>137.46199999999999</v>
+      </c>
+      <c r="X32">
+        <v>137.55000000000001</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42837.415983796294</v>
       </c>
@@ -1433,8 +2199,29 @@
       <c r="I33" s="2">
         <v>-7.8E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T33" s="1">
+        <v>42837.33289351852</v>
+      </c>
+      <c r="U33" s="1">
+        <v>42837.624675925923</v>
+      </c>
+      <c r="V33">
+        <v>0.2205</v>
+      </c>
+      <c r="W33">
+        <v>137.6825</v>
+      </c>
+      <c r="X33">
+        <v>136.94300000000001</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z33">
+        <v>-0.73950000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42838.415995370371</v>
       </c>
@@ -1459,8 +2246,29 @@
       <c r="I34" s="2">
         <v>-0.375</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T34" s="1">
+        <v>42838.333124999997</v>
+      </c>
+      <c r="U34" s="1">
+        <v>42838.624907407408</v>
+      </c>
+      <c r="V34" s="2">
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="W34">
+        <v>136.88849999999999</v>
+      </c>
+      <c r="X34">
+        <v>136.74449999999999</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z34">
+        <v>-0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42839.416006944448</v>
       </c>
@@ -1485,8 +2293,29 @@
       <c r="I35" s="2">
         <v>-0.34949999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T35" s="1">
+        <v>42839.333252314813</v>
+      </c>
+      <c r="U35" s="1">
+        <v>42839.624340277776</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="W35">
+        <v>136.732</v>
+      </c>
+      <c r="X35">
+        <v>136.511</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z35">
+        <v>-0.221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42842.415972222225</v>
       </c>
@@ -1511,8 +2340,29 @@
       <c r="I36">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T36" s="1">
+        <v>42842.332638888889</v>
+      </c>
+      <c r="U36" s="1">
+        <v>42842.624421296299</v>
+      </c>
+      <c r="V36">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W36">
+        <v>136.501</v>
+      </c>
+      <c r="X36">
+        <v>136.10499999999999</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z36">
+        <v>-0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42843.415972222225</v>
       </c>
@@ -1537,8 +2387,29 @@
       <c r="I37">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T37" s="1">
+        <v>42843.332870370374</v>
+      </c>
+      <c r="U37" s="1">
+        <v>42843.624652777777</v>
+      </c>
+      <c r="V37">
+        <v>0.159</v>
+      </c>
+      <c r="W37">
+        <v>136.25800000000001</v>
+      </c>
+      <c r="X37">
+        <v>136.96199999999999</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42844.415983796294</v>
       </c>
@@ -1563,8 +2434,29 @@
       <c r="I38">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T38" s="1">
+        <v>42844.333101851851</v>
+      </c>
+      <c r="U38" s="1">
+        <v>42844.624884259261</v>
+      </c>
+      <c r="V38">
+        <v>0.1255</v>
+      </c>
+      <c r="W38">
+        <v>136.994</v>
+      </c>
+      <c r="X38">
+        <v>139.2885</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>2.2945000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42845.415995370371</v>
       </c>
@@ -1589,8 +2481,29 @@
       <c r="I39">
         <v>0.1845</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T39" s="1">
+        <v>42845.332638888889</v>
+      </c>
+      <c r="U39" s="1">
+        <v>42845.624421296299</v>
+      </c>
+      <c r="V39" s="2">
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="W39">
+        <v>139.29150000000001</v>
+      </c>
+      <c r="X39">
+        <v>139.227</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z39">
+        <v>-6.4500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42846.415995370371</v>
       </c>
@@ -1615,8 +2528,29 @@
       <c r="I40" s="2">
         <v>-0.14649999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T40" s="1">
+        <v>42846.332766203705</v>
+      </c>
+      <c r="U40" s="1">
+        <v>42846.624548611115</v>
+      </c>
+      <c r="V40" s="2">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="W40">
+        <v>139.15350000000001</v>
+      </c>
+      <c r="X40">
+        <v>140.09450000000001</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42849.415972222225</v>
       </c>
@@ -1641,8 +2575,29 @@
       <c r="I41" s="2">
         <v>-0.122</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T41" s="1">
+        <v>42849.332638888889</v>
+      </c>
+      <c r="U41" s="1">
+        <v>42849.624421296299</v>
+      </c>
+      <c r="V41">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="W41">
+        <v>139.99799999999999</v>
+      </c>
+      <c r="X41">
+        <v>140.97049999999999</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>0.97250000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42850.415983796294</v>
       </c>
@@ -1667,8 +2622,29 @@
       <c r="I42" s="2">
         <v>-0.505</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T42" s="1">
+        <v>42850.332870370374</v>
+      </c>
+      <c r="U42" s="1">
+        <v>42850.60659722222</v>
+      </c>
+      <c r="V42" s="2">
+        <v>-0.504</v>
+      </c>
+      <c r="W42">
+        <v>141.447</v>
+      </c>
+      <c r="X42">
+        <v>140.4025</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z42">
+        <v>-1.0445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42851.415995370371</v>
       </c>
@@ -1693,8 +2669,29 @@
       <c r="I43">
         <v>0.1255</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T43" s="1">
+        <v>42851.332997685182</v>
+      </c>
+      <c r="U43" s="1">
+        <v>42851.624780092592</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="W43">
+        <v>140.4435</v>
+      </c>
+      <c r="X43">
+        <v>142.43299999999999</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>1.9895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42852.415995370371</v>
       </c>
@@ -1719,8 +2716,29 @@
       <c r="I44">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T44" s="1">
+        <v>42852.333229166667</v>
+      </c>
+      <c r="U44" s="1">
+        <v>42852.62431712963</v>
+      </c>
+      <c r="V44">
+        <v>0.2445</v>
+      </c>
+      <c r="W44">
+        <v>142.54400000000001</v>
+      </c>
+      <c r="X44">
+        <v>142.91749999999999</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>0.3735</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42853.415995370371</v>
       </c>
@@ -1745,8 +2763,29 @@
       <c r="I45">
         <v>9.4999999999999998E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T45" s="1">
+        <v>42853.332766203705</v>
+      </c>
+      <c r="U45" s="1">
+        <v>42853.624548611115</v>
+      </c>
+      <c r="V45" s="2">
+        <v>-9.0499999999999997E-2</v>
+      </c>
+      <c r="W45">
+        <v>142.7105</v>
+      </c>
+      <c r="X45">
+        <v>143.53450000000001</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42856.415972222225</v>
       </c>
@@ -1771,8 +2810,29 @@
       <c r="I46">
         <v>0.151</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T46" s="1">
+        <v>42856.332638888889</v>
+      </c>
+      <c r="U46" s="1">
+        <v>42856.624421296299</v>
+      </c>
+      <c r="V46" s="4">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="W46">
+        <v>143.54900000000001</v>
+      </c>
+      <c r="X46">
+        <v>143.89949999999999</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>0.35049999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42857.415972222225</v>
       </c>
@@ -1797,8 +2857,29 @@
       <c r="I47">
         <v>7.2499999999999995E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T47" s="1">
+        <v>42857.332870370374</v>
+      </c>
+      <c r="U47" s="1">
+        <v>42857.624652777777</v>
+      </c>
+      <c r="V47">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="W47">
+        <v>144.21600000000001</v>
+      </c>
+      <c r="X47">
+        <v>144.2705</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>5.45E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42858.415972222225</v>
       </c>
@@ -1823,8 +2904,29 @@
       <c r="I48" s="2">
         <v>-0.36399999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T48" s="1">
+        <v>42858.333101851851</v>
+      </c>
+      <c r="U48" s="1">
+        <v>42858.624884259261</v>
+      </c>
+      <c r="V48" s="2">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="W48">
+        <v>144.15799999999999</v>
+      </c>
+      <c r="X48">
+        <v>144.898</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>42859.415983796294</v>
       </c>
@@ -1849,8 +2951,29 @@
       <c r="I49" s="2">
         <v>-4.8500000000000001E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T49" s="1">
+        <v>42859.333229166667</v>
+      </c>
+      <c r="U49" s="1">
+        <v>42859.62431712963</v>
+      </c>
+      <c r="V49">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="W49">
+        <v>144.93600000000001</v>
+      </c>
+      <c r="X49">
+        <v>145.04349999999999</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42860.415995370371</v>
       </c>
@@ -1875,8 +2998,29 @@
       <c r="I50" s="2">
         <v>-0.50949999999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T50" s="1">
+        <v>42860.332766203705</v>
+      </c>
+      <c r="U50" s="1">
+        <v>42860.536354166667</v>
+      </c>
+      <c r="V50" s="2">
+        <v>-0.52300000000000002</v>
+      </c>
+      <c r="W50">
+        <v>144.96850000000001</v>
+      </c>
+      <c r="X50">
+        <v>145.4145</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42863.415972222225</v>
       </c>
@@ -1901,8 +3045,29 @@
       <c r="I51" s="2">
         <v>-0.22700000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T51" s="1">
+        <v>42863.332638888889</v>
+      </c>
+      <c r="U51" s="1">
+        <v>42863.624421296299</v>
+      </c>
+      <c r="V51" s="2">
+        <v>-5.9499999999999997E-2</v>
+      </c>
+      <c r="W51">
+        <v>145.4025</v>
+      </c>
+      <c r="X51">
+        <v>146.34049999999999</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42864.415983796294</v>
       </c>
@@ -1927,8 +3092,29 @@
       <c r="I52">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T52" s="1">
+        <v>42864.332766203705</v>
+      </c>
+      <c r="U52" s="1">
+        <v>42864.624548611115</v>
+      </c>
+      <c r="V52">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="W52">
+        <v>146.55950000000001</v>
+      </c>
+      <c r="X52">
+        <v>146.565</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>5.4999899999999997E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>42865.415983796294</v>
       </c>
@@ -1953,8 +3139,29 @@
       <c r="I53">
         <v>6.6500000000000004E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T53" s="1">
+        <v>42865.332997685182</v>
+      </c>
+      <c r="U53" s="1">
+        <v>42865.624780092592</v>
+      </c>
+      <c r="V53">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="W53">
+        <v>146.59399999999999</v>
+      </c>
+      <c r="X53">
+        <v>147.26249999999999</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>0.66849999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>42866.415995370371</v>
       </c>
@@ -1979,8 +3186,29 @@
       <c r="I54">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T54" s="1">
+        <v>42866.333229166667</v>
+      </c>
+      <c r="U54" s="1">
+        <v>42866.62431712963</v>
+      </c>
+      <c r="V54" s="2">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="W54">
+        <v>147.45249999999999</v>
+      </c>
+      <c r="X54">
+        <v>147.786</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>0.33350000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42867.415995370371</v>
       </c>
@@ -2005,8 +3233,29 @@
       <c r="I55" s="2">
         <v>-6.3500000000000001E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T55" s="1">
+        <v>42867.332662037035</v>
+      </c>
+      <c r="U55" s="1">
+        <v>42867.624444444446</v>
+      </c>
+      <c r="V55">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="W55">
+        <v>147.8175</v>
+      </c>
+      <c r="X55">
+        <v>146.65049999999999</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z55">
+        <v>-1.167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>42870.415972222225</v>
       </c>
@@ -2031,8 +3280,29 @@
       <c r="I56">
         <v>0.1585</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T56" s="1">
+        <v>42870.332638888889</v>
+      </c>
+      <c r="U56" s="1">
+        <v>42870.624421296299</v>
+      </c>
+      <c r="V56" s="2">
+        <v>-0.27450000000000002</v>
+      </c>
+      <c r="W56">
+        <v>146.7105</v>
+      </c>
+      <c r="X56">
+        <v>145.99350000000001</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z56">
+        <v>-0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>42871.415972222225</v>
       </c>
@@ -2057,8 +3327,29 @@
       <c r="I57" s="2">
         <v>-0.252</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T57" s="1">
+        <v>42871.332766203705</v>
+      </c>
+      <c r="U57" s="1">
+        <v>42871.624548611115</v>
+      </c>
+      <c r="V57" s="2">
+        <v>-6.1499999999999999E-2</v>
+      </c>
+      <c r="W57">
+        <v>146.00149999999999</v>
+      </c>
+      <c r="X57">
+        <v>146.60249999999999</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>42872.415983796294</v>
       </c>
@@ -2083,8 +3374,29 @@
       <c r="I58">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T58" s="1">
+        <v>42872.33289351852</v>
+      </c>
+      <c r="U58" s="1">
+        <v>42872.624675925923</v>
+      </c>
+      <c r="V58">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="W58">
+        <v>146.4975</v>
+      </c>
+      <c r="X58">
+        <v>145.7115</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z58">
+        <v>-0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42873.415983796294</v>
       </c>
@@ -2109,8 +3421,29 @@
       <c r="I59">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T59" s="1">
+        <v>42873.333124999997</v>
+      </c>
+      <c r="U59" s="1">
+        <v>42873.624907407408</v>
+      </c>
+      <c r="V59" s="2">
+        <v>-0.26550000000000001</v>
+      </c>
+      <c r="W59">
+        <v>146.09049999999999</v>
+      </c>
+      <c r="X59">
+        <v>143.9025</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z59">
+        <v>-2.1880000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42874.415995370371</v>
       </c>
@@ -2135,8 +3468,29 @@
       <c r="I60" s="2">
         <v>-0.127</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T60" s="1">
+        <v>42874.333252314813</v>
+      </c>
+      <c r="U60" s="1">
+        <v>42874.624340277776</v>
+      </c>
+      <c r="V60" s="2">
+        <v>-3.0499999999999999E-2</v>
+      </c>
+      <c r="W60">
+        <v>143.708</v>
+      </c>
+      <c r="X60">
+        <v>144.3295</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>0.62150000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>42877.415972222225</v>
       </c>
@@ -2161,8 +3515,29 @@
       <c r="I61" s="2">
         <v>-0.27150000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T61" s="1">
+        <v>42877.332638888889</v>
+      </c>
+      <c r="U61" s="1">
+        <v>42877.624421296299</v>
+      </c>
+      <c r="V61">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="W61">
+        <v>144.38300000000001</v>
+      </c>
+      <c r="X61">
+        <v>144.8485</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>0.46550000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42878.415983796294</v>
       </c>
@@ -2187,8 +3562,29 @@
       <c r="I62">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T62" s="1">
+        <v>42878.332870370374</v>
+      </c>
+      <c r="U62" s="1">
+        <v>42878.624652777777</v>
+      </c>
+      <c r="V62">
+        <v>0.246</v>
+      </c>
+      <c r="W62">
+        <v>144.73650000000001</v>
+      </c>
+      <c r="X62">
+        <v>144.4375</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z62">
+        <v>-0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>42879.415995370371</v>
       </c>
@@ -2213,8 +3609,29 @@
       <c r="I63">
         <v>0.1845</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T63" s="1">
+        <v>42879.333101851851</v>
+      </c>
+      <c r="U63" s="1">
+        <v>42879.624884259261</v>
+      </c>
+      <c r="V63">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="W63">
+        <v>144.666</v>
+      </c>
+      <c r="X63">
+        <v>144.93549999999999</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>0.26950000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42880.415995370371</v>
       </c>
@@ -2239,8 +3656,29 @@
       <c r="I64" s="2">
         <v>-0.30349999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T64" s="1">
+        <v>42880.332638888889</v>
+      </c>
+      <c r="U64" s="1">
+        <v>42880.624421296299</v>
+      </c>
+      <c r="V64" s="2">
+        <v>-0.27600000000000002</v>
+      </c>
+      <c r="W64">
+        <v>144.92449999999999</v>
+      </c>
+      <c r="X64">
+        <v>144.79050000000001</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z64">
+        <v>-0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42881.416006944448</v>
       </c>
@@ -2265,8 +3703,29 @@
       <c r="I65">
         <v>0.81200000000000006</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T65" s="1">
+        <v>42881.332766203705</v>
+      </c>
+      <c r="U65" s="1">
+        <v>42881.584270833337</v>
+      </c>
+      <c r="V65" s="3">
+        <v>1.0355000000000001</v>
+      </c>
+      <c r="W65">
+        <v>144.721</v>
+      </c>
+      <c r="X65">
+        <v>144.57849999999999</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z65">
+        <v>-0.14249999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42884.415972222225</v>
       </c>
@@ -2291,8 +3750,29 @@
       <c r="I66">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T66" s="1">
+        <v>42884.332638888889</v>
+      </c>
+      <c r="U66" s="1">
+        <v>42884.624421296299</v>
+      </c>
+      <c r="V66" s="2">
+        <v>-0.27050000000000002</v>
+      </c>
+      <c r="W66">
+        <v>144.69649999999999</v>
+      </c>
+      <c r="X66">
+        <v>142.5455</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z66">
+        <v>-2.1509999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42885.415972222225</v>
       </c>
@@ -2317,8 +3797,29 @@
       <c r="I67" s="2">
         <v>-2.7E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T67" s="1">
+        <v>42885.332766203705</v>
+      </c>
+      <c r="U67" s="1">
+        <v>42885.416909722226</v>
+      </c>
+      <c r="V67" s="2">
+        <v>-0.53949999999999998</v>
+      </c>
+      <c r="W67">
+        <v>142.59200000000001</v>
+      </c>
+      <c r="X67">
+        <v>142.63650000000001</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>4.4499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42886.415983796294</v>
       </c>
@@ -2343,8 +3844,29 @@
       <c r="I68" s="2">
         <v>-0.23150000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T68" s="1">
+        <v>42886.33289351852</v>
+      </c>
+      <c r="U68" s="1">
+        <v>42886.498981481483</v>
+      </c>
+      <c r="V68" s="2">
+        <v>-0.53100000000000003</v>
+      </c>
+      <c r="W68">
+        <v>142.828</v>
+      </c>
+      <c r="X68">
+        <v>142.02799999999999</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z68">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42887.415995370371</v>
       </c>
@@ -2369,8 +3891,29 @@
       <c r="I69" s="2">
         <v>-0.13150000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T69" s="1">
+        <v>42887.333020833335</v>
+      </c>
+      <c r="U69" s="1">
+        <v>42887.624803240738</v>
+      </c>
+      <c r="V69">
+        <v>9.4E-2</v>
+      </c>
+      <c r="W69">
+        <v>141.8785</v>
+      </c>
+      <c r="X69">
+        <v>142.65899999999999</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>0.78049999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>42888.416006944448</v>
       </c>
@@ -2395,8 +3938,29 @@
       <c r="I70" s="2">
         <v>-9.7500000000000003E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T70" s="1">
+        <v>42888.333252314813</v>
+      </c>
+      <c r="U70" s="1">
+        <v>42888.624340277776</v>
+      </c>
+      <c r="V70">
+        <v>0.26650000000000001</v>
+      </c>
+      <c r="W70">
+        <v>142.72749999999999</v>
+      </c>
+      <c r="X70">
+        <v>143.5215</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>42891.415972222225</v>
       </c>
@@ -2421,8 +3985,29 @@
       <c r="I71" s="2">
         <v>-0.30199999999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T71" s="1">
+        <v>42891.332638888889</v>
+      </c>
+      <c r="U71" s="1">
+        <v>42891.624421296299</v>
+      </c>
+      <c r="V71" s="2">
+        <v>-0.23050000000000001</v>
+      </c>
+      <c r="W71">
+        <v>143.51599999999999</v>
+      </c>
+      <c r="X71">
+        <v>142.202</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z71">
+        <v>-1.3140000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>42892.415983796294</v>
       </c>
@@ -2447,8 +4032,29 @@
       <c r="I72">
         <v>0.377</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T72" s="1">
+        <v>42892.332766203705</v>
+      </c>
+      <c r="U72" s="1">
+        <v>42892.428020833337</v>
+      </c>
+      <c r="V72" s="2">
+        <v>-0.51949999999999996</v>
+      </c>
+      <c r="W72">
+        <v>142.11850000000001</v>
+      </c>
+      <c r="X72">
+        <v>142.58150000000001</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>42893.415983796294</v>
       </c>
@@ -2473,8 +4079,29 @@
       <c r="I73">
         <v>0.1065</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T73" s="1">
+        <v>42893.33289351852</v>
+      </c>
+      <c r="U73" s="1">
+        <v>42893.624675925923</v>
+      </c>
+      <c r="V73" s="2">
+        <v>-0.188</v>
+      </c>
+      <c r="W73">
+        <v>142.58099999999999</v>
+      </c>
+      <c r="X73">
+        <v>141.22200000000001</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z73">
+        <v>-1.359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42894.415983796294</v>
       </c>
@@ -2499,8 +4126,29 @@
       <c r="I74" s="2">
         <v>-0.53249999999999997</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T74" s="1">
+        <v>42894.333020833335</v>
+      </c>
+      <c r="U74" s="1">
+        <v>42894.624803240738</v>
+      </c>
+      <c r="V74" s="2">
+        <v>-0.40699999999999997</v>
+      </c>
+      <c r="W74">
+        <v>141.155</v>
+      </c>
+      <c r="X74">
+        <v>142.19200000000001</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <v>1.0369999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>42895.415995370371</v>
       </c>
@@ -2525,8 +4173,29 @@
       <c r="I75" s="2">
         <v>-0.51400000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T75" s="1">
+        <v>42895.333148148151</v>
+      </c>
+      <c r="U75" s="1">
+        <v>42895.370069444441</v>
+      </c>
+      <c r="V75" s="3">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="W75">
+        <v>142.274</v>
+      </c>
+      <c r="X75">
+        <v>140.876</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z75">
+        <v>-1.3979999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>42898.415972222225</v>
       </c>
@@ -2551,8 +4220,29 @@
       <c r="I76" s="2">
         <v>-0.27550000000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T76" s="1">
+        <v>42898.332638888889</v>
+      </c>
+      <c r="U76" s="1">
+        <v>42898.624421296299</v>
+      </c>
+      <c r="V76">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="W76">
+        <v>140.08250000000001</v>
+      </c>
+      <c r="X76">
+        <v>140.63550000000001</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>42899.415983796294</v>
       </c>
@@ -2577,8 +4267,29 @@
       <c r="I77">
         <v>6.0499999999999998E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T77" s="1">
+        <v>42899.332870370374</v>
+      </c>
+      <c r="U77" s="1">
+        <v>42899.624652777777</v>
+      </c>
+      <c r="V77" s="2">
+        <v>-0.21099999999999999</v>
+      </c>
+      <c r="W77">
+        <v>140.59</v>
+      </c>
+      <c r="X77">
+        <v>139.14099999999999</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z77">
+        <v>-1.4490000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>42900.415995370371</v>
       </c>
@@ -2603,8 +4314,29 @@
       <c r="I78" s="2">
         <v>-9.9999999999899995E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T78" s="1">
+        <v>42900.332997685182</v>
+      </c>
+      <c r="U78" s="1">
+        <v>42900.624780092592</v>
+      </c>
+      <c r="V78" s="2">
+        <v>-4.1500000000000002E-2</v>
+      </c>
+      <c r="W78">
+        <v>139.304</v>
+      </c>
+      <c r="X78">
+        <v>140.31200000000001</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z78">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>42901.416006944448</v>
       </c>
@@ -2629,8 +4361,29 @@
       <c r="I79" s="2">
         <v>-8.1000000000000003E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T79" s="1">
+        <v>42901.333124999997</v>
+      </c>
+      <c r="U79" s="1">
+        <v>42901.624907407408</v>
+      </c>
+      <c r="V79" s="2">
+        <v>-0.27350000000000002</v>
+      </c>
+      <c r="W79">
+        <v>140.38800000000001</v>
+      </c>
+      <c r="X79">
+        <v>139.4665</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z79">
+        <v>-0.92149999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>42902.416018518517</v>
       </c>
@@ -2655,8 +4408,29 @@
       <c r="I80" s="2">
         <v>-2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T80" s="1">
+        <v>42902.333252314813</v>
+      </c>
+      <c r="U80" s="1">
+        <v>42902.624340277776</v>
+      </c>
+      <c r="V80" s="4">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="W80">
+        <v>139.8295</v>
+      </c>
+      <c r="X80">
+        <v>141.40100000000001</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>1.5714999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>42905.415972222225</v>
       </c>
@@ -2681,8 +4455,29 @@
       <c r="I81" s="2">
         <v>-8.9499999999999996E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T81" s="1">
+        <v>42905.332638888889</v>
+      </c>
+      <c r="U81" s="1">
+        <v>42905.624421296299</v>
+      </c>
+      <c r="V81">
+        <v>0.15</v>
+      </c>
+      <c r="W81">
+        <v>141.42699999999999</v>
+      </c>
+      <c r="X81">
+        <v>141.60900000000001</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>42906.415983796294</v>
       </c>
@@ -2707,8 +4502,29 @@
       <c r="I82">
         <v>0.10150000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T82" s="1">
+        <v>42906.332870370374</v>
+      </c>
+      <c r="U82" s="1">
+        <v>42906.624652777777</v>
+      </c>
+      <c r="V82" s="2">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="W82">
+        <v>141.46100000000001</v>
+      </c>
+      <c r="X82">
+        <v>142.20949999999999</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>0.74850000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>42907.415983796294</v>
       </c>
@@ -2733,8 +4549,29 @@
       <c r="I83">
         <v>0.13950000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T83" s="1">
+        <v>42907.332997685182</v>
+      </c>
+      <c r="U83" s="1">
+        <v>42907.624780092592</v>
+      </c>
+      <c r="V83">
+        <v>0.2205</v>
+      </c>
+      <c r="W83">
+        <v>142.0985</v>
+      </c>
+      <c r="X83">
+        <v>140.62950000000001</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z83">
+        <v>-1.4690000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>42908.415983796294</v>
       </c>
@@ -2759,8 +4596,29 @@
       <c r="I84">
         <v>0.13550000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T84" s="1">
+        <v>42908.333229166667</v>
+      </c>
+      <c r="U84" s="1">
+        <v>42908.469456018516</v>
+      </c>
+      <c r="V84" s="2">
+        <v>-0.53249999999999997</v>
+      </c>
+      <c r="W84">
+        <v>140.72200000000001</v>
+      </c>
+      <c r="X84">
+        <v>141.148</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z84">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>42909.415983796294</v>
       </c>
@@ -2785,8 +4643,29 @@
       <c r="I85">
         <v>0.127</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T85" s="1">
+        <v>42909.332662037035</v>
+      </c>
+      <c r="U85" s="1">
+        <v>42909.624444444446</v>
+      </c>
+      <c r="V85" s="2">
+        <v>-0.29649999999999999</v>
+      </c>
+      <c r="W85">
+        <v>141.23849999999999</v>
+      </c>
+      <c r="X85">
+        <v>141.11699999999999</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z85">
+        <v>-0.1215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>42912.415972222225</v>
       </c>
@@ -2811,8 +4690,29 @@
       <c r="I86" s="2">
         <v>-8.5000000000000006E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T86" s="1">
+        <v>42912.332638888889</v>
+      </c>
+      <c r="U86" s="1">
+        <v>42912.624421296299</v>
+      </c>
+      <c r="V86">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W86">
+        <v>141.0985</v>
+      </c>
+      <c r="X86">
+        <v>141.71250000000001</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z86">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>42913.415983796294</v>
       </c>
@@ -2837,8 +4737,26 @@
       <c r="I87" s="2">
         <v>-6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T87" s="1">
+        <v>42913.332870370374</v>
+      </c>
+      <c r="U87" s="1">
+        <v>42913.624652777777</v>
+      </c>
+      <c r="V87">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="W87">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="X87">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="Z87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>42914.415995370371</v>
       </c>
@@ -2863,8 +4781,29 @@
       <c r="I88">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T88" s="1">
+        <v>42914.333101851851</v>
+      </c>
+      <c r="U88" s="1">
+        <v>42914.624884259261</v>
+      </c>
+      <c r="V88" s="2">
+        <v>-0.22800000000000001</v>
+      </c>
+      <c r="W88">
+        <v>142.3175</v>
+      </c>
+      <c r="X88">
+        <v>143.88300000000001</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z88">
+        <v>1.5654999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>42915.415995370371</v>
       </c>
@@ -2889,8 +4828,29 @@
       <c r="I89" s="2">
         <v>-0.16950000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T89" s="1">
+        <v>42915.333229166667</v>
+      </c>
+      <c r="U89" s="1">
+        <v>42915.62431712963</v>
+      </c>
+      <c r="V89">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="W89">
+        <v>143.8715</v>
+      </c>
+      <c r="X89">
+        <v>145.30199999999999</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z89">
+        <v>1.4305000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>42916.416006944448</v>
       </c>
@@ -2915,8 +4875,29 @@
       <c r="I90" s="2">
         <v>-9.4999999999999998E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T90" s="1">
+        <v>42916.332766203705</v>
+      </c>
+      <c r="U90" s="1">
+        <v>42916.624548611115</v>
+      </c>
+      <c r="V90">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="W90">
+        <v>145.17699999999999</v>
+      </c>
+      <c r="X90">
+        <v>145.67599999999999</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z90">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>42919.415972222225</v>
       </c>
@@ -2941,8 +4922,29 @@
       <c r="I91" s="2">
         <v>-0.20899999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T91" s="1">
+        <v>42919.332638888889</v>
+      </c>
+      <c r="U91" s="1">
+        <v>42919.624421296299</v>
+      </c>
+      <c r="V91">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="W91">
+        <v>145.83099999999999</v>
+      </c>
+      <c r="X91">
+        <v>146.1645</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z91">
+        <v>0.33350000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>42920.415983796294</v>
       </c>
@@ -2967,8 +4969,29 @@
       <c r="I92">
         <v>0.442</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T92" s="1">
+        <v>42920.332870370374</v>
+      </c>
+      <c r="U92" s="1">
+        <v>42920.604513888888</v>
+      </c>
+      <c r="V92" s="2">
+        <v>-0.52800000000000002</v>
+      </c>
+      <c r="W92">
+        <v>146.08600000000001</v>
+      </c>
+      <c r="X92">
+        <v>146.69200000000001</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z92">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>42921.415983796294</v>
       </c>
@@ -2993,8 +5016,29 @@
       <c r="I93">
         <v>4.9500000000000002E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T93" s="1">
+        <v>42921.332997685182</v>
+      </c>
+      <c r="U93" s="1">
+        <v>42921.624780092592</v>
+      </c>
+      <c r="V93" s="2">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="W93">
+        <v>146.74950000000001</v>
+      </c>
+      <c r="X93">
+        <v>146.1635</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z93">
+        <v>-0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>42922.415983796294</v>
       </c>
@@ -3019,8 +5063,29 @@
       <c r="I94" s="2">
         <v>-0.28149999999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T94" s="1">
+        <v>42922.333124999997</v>
+      </c>
+      <c r="U94" s="1">
+        <v>42922.624907407408</v>
+      </c>
+      <c r="V94" s="2">
+        <v>-0.1105</v>
+      </c>
+      <c r="W94">
+        <v>146.40799999999999</v>
+      </c>
+      <c r="X94">
+        <v>146.31549999999999</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z94">
+        <v>-9.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>42923.415995370371</v>
       </c>
@@ -3045,8 +5110,29 @@
       <c r="I95">
         <v>0.46050000000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T95" s="1">
+        <v>42923.333252314813</v>
+      </c>
+      <c r="U95" s="1">
+        <v>42923.624340277776</v>
+      </c>
+      <c r="V95" s="3">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="W95">
+        <v>146.42400000000001</v>
+      </c>
+      <c r="X95">
+        <v>146.685</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z95">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>42926.415972222225</v>
       </c>
@@ -3071,8 +5157,29 @@
       <c r="I96">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T96" s="1">
+        <v>42926.332638888889</v>
+      </c>
+      <c r="U96" s="1">
+        <v>42926.624421296299</v>
+      </c>
+      <c r="V96" s="4">
+        <v>0.40849999999999997</v>
+      </c>
+      <c r="W96">
+        <v>146.81100000000001</v>
+      </c>
+      <c r="X96">
+        <v>146.9195</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z96">
+        <v>0.1085</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>42927.415972222225</v>
       </c>
@@ -3097,8 +5204,29 @@
       <c r="I97">
         <v>0.21149999999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T97" s="1">
+        <v>42927.332870370374</v>
+      </c>
+      <c r="U97" s="1">
+        <v>42927.624652777777</v>
+      </c>
+      <c r="V97" s="2">
+        <v>-0.32050000000000001</v>
+      </c>
+      <c r="W97">
+        <v>146.92349999999999</v>
+      </c>
+      <c r="X97">
+        <v>146.90350000000001</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z97">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>42928.415972222225</v>
       </c>
@@ -3123,8 +5251,29 @@
       <c r="I98">
         <v>0.35049999999999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T98" s="1">
+        <v>42928.332997685182</v>
+      </c>
+      <c r="U98" s="1">
+        <v>42928.624780092592</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="W98">
+        <v>146.91499999999999</v>
+      </c>
+      <c r="X98">
+        <v>146.399</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z98">
+        <v>-0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>42929.415972222225</v>
       </c>
@@ -3149,8 +5298,29 @@
       <c r="I99">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T99" s="1">
+        <v>42929.333229166667</v>
+      </c>
+      <c r="U99" s="1">
+        <v>42929.62431712963</v>
+      </c>
+      <c r="V99">
+        <v>0.247</v>
+      </c>
+      <c r="W99">
+        <v>146.43450000000001</v>
+      </c>
+      <c r="X99">
+        <v>146.08000000000001</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z99">
+        <v>-0.35449999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>42930.415972222225</v>
       </c>
@@ -3175,8 +5345,29 @@
       <c r="I100" s="2">
         <v>-6.9999999999799997E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T100" s="1">
+        <v>42930.332766203705</v>
+      </c>
+      <c r="U100" s="1">
+        <v>42930.624548611115</v>
+      </c>
+      <c r="V100">
+        <v>0.185</v>
+      </c>
+      <c r="W100">
+        <v>145.92850000000001</v>
+      </c>
+      <c r="X100">
+        <v>146.70150000000001</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z100">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>42933.415972222225</v>
       </c>
@@ -3201,8 +5392,29 @@
       <c r="I101" s="2">
         <v>-1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T101" s="1">
+        <v>42933.332638888889</v>
+      </c>
+      <c r="U101" s="1">
+        <v>42933.624421296299</v>
+      </c>
+      <c r="V101" s="2">
+        <v>-0.112</v>
+      </c>
+      <c r="W101">
+        <v>146.59299999999999</v>
+      </c>
+      <c r="X101">
+        <v>147.57</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z101">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>42934.415983796294</v>
       </c>
@@ -3227,8 +5439,29 @@
       <c r="I102" s="2">
         <v>-4.9500000000000002E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T102" s="1">
+        <v>42934.332766203705</v>
+      </c>
+      <c r="U102" s="1">
+        <v>42934.624548611115</v>
+      </c>
+      <c r="V102">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="W102">
+        <v>147.423</v>
+      </c>
+      <c r="X102">
+        <v>146.99</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z102">
+        <v>-0.433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>42935.415995370371</v>
       </c>
@@ -3253,8 +5486,29 @@
       <c r="I103" s="2">
         <v>-0.34250000000000003</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T103" s="1">
+        <v>42935.332997685182</v>
+      </c>
+      <c r="U103" s="1">
+        <v>42935.624780092592</v>
+      </c>
+      <c r="V103" s="2">
+        <v>-0.1565</v>
+      </c>
+      <c r="W103">
+        <v>147.07149999999999</v>
+      </c>
+      <c r="X103">
+        <v>146.11449999999999</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z103">
+        <v>-0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>42936.416006944448</v>
       </c>
@@ -3279,8 +5533,29 @@
       <c r="I104" s="2">
         <v>-0.45750000000000002</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T104" s="1">
+        <v>42936.333124999997</v>
+      </c>
+      <c r="U104" s="1">
+        <v>42936.624907407408</v>
+      </c>
+      <c r="V104" s="2">
+        <v>-0.40649999999999997</v>
+      </c>
+      <c r="W104">
+        <v>146.13149999999999</v>
+      </c>
+      <c r="X104">
+        <v>145.7285</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z104">
+        <v>-0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>42937.416018518517</v>
       </c>
@@ -3305,8 +5580,29 @@
       <c r="I105">
         <v>0.104</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T105" s="1">
+        <v>42937.333252314813</v>
+      </c>
+      <c r="U105" s="1">
+        <v>42937.624340277776</v>
+      </c>
+      <c r="V105" s="2">
+        <v>-0.223</v>
+      </c>
+      <c r="W105">
+        <v>145.72649999999999</v>
+      </c>
+      <c r="X105">
+        <v>145.0445</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z105">
+        <v>-0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>42940.415972222225</v>
       </c>
@@ -3331,8 +5627,29 @@
       <c r="I106" s="2">
         <v>-0.3155</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T106" s="1">
+        <v>42940.332638888889</v>
+      </c>
+      <c r="U106" s="1">
+        <v>42940.624421296299</v>
+      </c>
+      <c r="V106" s="2">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="W106">
+        <v>145.13749999999999</v>
+      </c>
+      <c r="X106">
+        <v>144.51300000000001</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z106">
+        <v>-0.62450000000000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>42941.415983796294</v>
       </c>
@@ -3357,8 +5674,29 @@
       <c r="I107" s="2">
         <v>-0.115</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T107" s="1">
+        <v>42941.332766203705</v>
+      </c>
+      <c r="U107" s="1">
+        <v>42941.624548611115</v>
+      </c>
+      <c r="V107" s="2">
+        <v>-7.1499999999999994E-2</v>
+      </c>
+      <c r="W107">
+        <v>144.48750000000001</v>
+      </c>
+      <c r="X107">
+        <v>144.804</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z107">
+        <v>0.3165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>42942.415995370371</v>
       </c>
@@ -3383,8 +5721,29 @@
       <c r="I108" s="2">
         <v>-4.1500000000000002E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T108" s="1">
+        <v>42942.33289351852</v>
+      </c>
+      <c r="U108" s="1">
+        <v>42942.624675925923</v>
+      </c>
+      <c r="V108" s="2">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="W108">
+        <v>144.81700000000001</v>
+      </c>
+      <c r="X108">
+        <v>145.767</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z108">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>42943.416006944448</v>
       </c>
@@ -3409,8 +5768,29 @@
       <c r="I109" s="2">
         <v>-0.34499999999999997</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T109" s="1">
+        <v>42943.333020833335</v>
+      </c>
+      <c r="U109" s="1">
+        <v>42943.624803240738</v>
+      </c>
+      <c r="V109" s="2">
+        <v>-0.17649999999999999</v>
+      </c>
+      <c r="W109">
+        <v>145.75399999999999</v>
+      </c>
+      <c r="X109">
+        <v>145.7415</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z109">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>42944.416018518517</v>
       </c>
@@ -3435,8 +5815,29 @@
       <c r="I110" s="2">
         <v>-1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T110" s="1">
+        <v>42944.333148148151</v>
+      </c>
+      <c r="U110" s="1">
+        <v>42944.624930555554</v>
+      </c>
+      <c r="V110">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="W110">
+        <v>145.80699999999999</v>
+      </c>
+      <c r="X110">
+        <v>145.42750000000001</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z110">
+        <v>-0.3795</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>42947.415972222225</v>
       </c>
@@ -3461,8 +5862,29 @@
       <c r="I111" s="2">
         <v>-8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T111" s="1">
+        <v>42947.332638888889</v>
+      </c>
+      <c r="U111" s="1">
+        <v>42947.624421296299</v>
+      </c>
+      <c r="V111">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="W111">
+        <v>145.4385</v>
+      </c>
+      <c r="X111">
+        <v>145.32249999999999</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z111">
+        <v>-0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>42948.415983796294</v>
       </c>
@@ -3487,8 +5909,29 @@
       <c r="I112">
         <v>2.2499999999999999E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T112" s="1">
+        <v>42948.332870370374</v>
+      </c>
+      <c r="U112" s="1">
+        <v>42948.624652777777</v>
+      </c>
+      <c r="V112">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="W112">
+        <v>145.3365</v>
+      </c>
+      <c r="X112">
+        <v>145.5855</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z112">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>42949.415995370371</v>
       </c>
@@ -3513,8 +5956,29 @@
       <c r="I113">
         <v>0.39200000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T113" s="1">
+        <v>42949.333101851851</v>
+      </c>
+      <c r="U113" s="1">
+        <v>42949.624884259261</v>
+      </c>
+      <c r="V113" s="3">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="W113">
+        <v>145.61000000000001</v>
+      </c>
+      <c r="X113">
+        <v>145.75</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z113">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>42950.415995370371</v>
       </c>
@@ -3539,8 +6003,29 @@
       <c r="I114" s="2">
         <v>-7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T114" s="1">
+        <v>42950.332638888889</v>
+      </c>
+      <c r="U114" s="1">
+        <v>42950.624421296299</v>
+      </c>
+      <c r="V114" s="2">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="W114">
+        <v>145.81200000000001</v>
+      </c>
+      <c r="X114">
+        <v>146.43100000000001</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z114">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>42951.416006944448</v>
       </c>
@@ -3565,8 +6050,29 @@
       <c r="I115">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T115" s="1">
+        <v>42951.332766203705</v>
+      </c>
+      <c r="U115" s="1">
+        <v>42951.624548611115</v>
+      </c>
+      <c r="V115" s="2">
+        <v>-0.1855</v>
+      </c>
+      <c r="W115">
+        <v>146.48249999999999</v>
+      </c>
+      <c r="X115">
+        <v>144.49199999999999</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z115">
+        <v>-1.9904999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>42954.415972222225</v>
       </c>
@@ -3591,8 +6097,29 @@
       <c r="I116" s="2">
         <v>-6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T116" s="1">
+        <v>42954.332638888889</v>
+      </c>
+      <c r="U116" s="1">
+        <v>42954.624421296299</v>
+      </c>
+      <c r="V116" s="2">
+        <v>-2.9499999999999998E-2</v>
+      </c>
+      <c r="W116">
+        <v>144.47399999999999</v>
+      </c>
+      <c r="X116">
+        <v>144.51900000000001</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>42955.415983796294</v>
       </c>
@@ -3617,8 +6144,29 @@
       <c r="I117" s="2">
         <v>-0.16200000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T117" s="1">
+        <v>42955.332766203705</v>
+      </c>
+      <c r="U117" s="1">
+        <v>42955.624548611115</v>
+      </c>
+      <c r="V117">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="W117">
+        <v>144.47049999999999</v>
+      </c>
+      <c r="X117">
+        <v>144.3415</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z117">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>42956.415995370371</v>
       </c>
@@ -3643,8 +6191,29 @@
       <c r="I118" s="2">
         <v>-9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T118" s="1">
+        <v>42956.332997685182</v>
+      </c>
+      <c r="U118" s="1">
+        <v>42956.624780092592</v>
+      </c>
+      <c r="V118">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="W118">
+        <v>144.39500000000001</v>
+      </c>
+      <c r="X118">
+        <v>143.08600000000001</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z118">
+        <v>-1.3089999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>42957.416006944448</v>
       </c>
@@ -3669,8 +6238,29 @@
       <c r="I119" s="2">
         <v>-0.50549999999999995</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T119" s="1">
+        <v>42957.333229166667</v>
+      </c>
+      <c r="U119" s="1">
+        <v>42957.62431712963</v>
+      </c>
+      <c r="V119" s="4">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="W119">
+        <v>143.33449999999999</v>
+      </c>
+      <c r="X119">
+        <v>143.07050000000001</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z119">
+        <v>-0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>42958.416018518517</v>
       </c>
@@ -3695,8 +6285,29 @@
       <c r="I120" s="2">
         <v>-0.1885</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T120" s="1">
+        <v>42958.332766203705</v>
+      </c>
+      <c r="U120" s="1">
+        <v>42958.624548611115</v>
+      </c>
+      <c r="V120" s="2">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="W120">
+        <v>142.971</v>
+      </c>
+      <c r="X120">
+        <v>141.6405</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z120">
+        <v>-1.3305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>42961.415972222225</v>
       </c>
@@ -3721,8 +6332,29 @@
       <c r="I121">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T121" s="1">
+        <v>42961.332638888889</v>
+      </c>
+      <c r="U121" s="1">
+        <v>42961.624421296299</v>
+      </c>
+      <c r="V121" s="3">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="W121">
+        <v>141.6155</v>
+      </c>
+      <c r="X121">
+        <v>142.00899999999999</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z121">
+        <v>0.39350000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>42962.415972222225</v>
       </c>
@@ -3747,8 +6379,29 @@
       <c r="I122">
         <v>0.26450000000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T122" s="1">
+        <v>42962.332870370374</v>
+      </c>
+      <c r="U122" s="1">
+        <v>42962.624652777777</v>
+      </c>
+      <c r="V122" s="3">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="W122">
+        <v>141.90100000000001</v>
+      </c>
+      <c r="X122">
+        <v>142.25299999999999</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z122">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>42963.415972222225</v>
       </c>
@@ -3773,8 +6426,29 @@
       <c r="I123" s="2">
         <v>-2.9499999999999998E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T123" s="1">
+        <v>42963.333101851851</v>
+      </c>
+      <c r="U123" s="1">
+        <v>42963.624884259261</v>
+      </c>
+      <c r="V123">
+        <v>0.02</v>
+      </c>
+      <c r="W123">
+        <v>142.09</v>
+      </c>
+      <c r="X123">
+        <v>142.3595</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z123">
+        <v>0.26950000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>42964.415983796294</v>
       </c>
@@ -3799,8 +6473,29 @@
       <c r="I124" s="2">
         <v>-1.2E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T124" s="1">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="U124" s="1">
+        <v>42964.624421296299</v>
+      </c>
+      <c r="V124">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="W124">
+        <v>142.315</v>
+      </c>
+      <c r="X124">
+        <v>141.94800000000001</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z124">
+        <v>-0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>42965.415995370371</v>
       </c>
@@ -3825,8 +6520,29 @@
       <c r="I125" s="2">
         <v>-0.1295</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T125" s="1">
+        <v>42965.332870370374</v>
+      </c>
+      <c r="U125" s="1">
+        <v>42965.624652777777</v>
+      </c>
+      <c r="V125" s="2">
+        <v>-7.85E-2</v>
+      </c>
+      <c r="W125">
+        <v>141.93450000000001</v>
+      </c>
+      <c r="X125">
+        <v>140.905</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z125">
+        <v>-1.0295000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>42968.415972222225</v>
       </c>
@@ -3851,8 +6567,29 @@
       <c r="I126">
         <v>7.7499999999999999E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T126" s="1">
+        <v>42968.332638888889</v>
+      </c>
+      <c r="U126" s="1">
+        <v>42968.624421296299</v>
+      </c>
+      <c r="V126">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="W126">
+        <v>140.84</v>
+      </c>
+      <c r="X126">
+        <v>140.82550000000001</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z126">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>42969.415972222225</v>
       </c>
@@ -3877,8 +6614,29 @@
       <c r="I127">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T127" s="1">
+        <v>42969.332870370374</v>
+      </c>
+      <c r="U127" s="1">
+        <v>42969.624652777777</v>
+      </c>
+      <c r="V127" s="2">
+        <v>-0.18049999999999999</v>
+      </c>
+      <c r="W127">
+        <v>140.63849999999999</v>
+      </c>
+      <c r="X127">
+        <v>140.62350000000001</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z127">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>42970.415972222225</v>
       </c>
@@ -3903,8 +6661,29 @@
       <c r="I128">
         <v>0.161</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T128" s="1">
+        <v>42970.332997685182</v>
+      </c>
+      <c r="U128" s="1">
+        <v>42970.624780092592</v>
+      </c>
+      <c r="V128" s="2">
+        <v>-0.252</v>
+      </c>
+      <c r="W128">
+        <v>140.54849999999999</v>
+      </c>
+      <c r="X128">
+        <v>140.65700000000001</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z128">
+        <v>0.1085</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>42971.415972222225</v>
       </c>
@@ -3929,8 +6708,29 @@
       <c r="I129" s="2">
         <v>-0.1205</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T129" s="1">
+        <v>42971.333124999997</v>
+      </c>
+      <c r="U129" s="1">
+        <v>42971.624907407408</v>
+      </c>
+      <c r="V129" s="2">
+        <v>-3.85E-2</v>
+      </c>
+      <c r="W129">
+        <v>140.542</v>
+      </c>
+      <c r="X129">
+        <v>139.45400000000001</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z129">
+        <v>-1.0880000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>42972.415983796294</v>
       </c>
@@ -3955,8 +6755,29 @@
       <c r="I130" s="2">
         <v>-0.122</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T130" s="1">
+        <v>42972.333252314813</v>
+      </c>
+      <c r="U130" s="1">
+        <v>42972.624340277776</v>
+      </c>
+      <c r="V130">
+        <v>0.115</v>
+      </c>
+      <c r="W130">
+        <v>139.45599999999999</v>
+      </c>
+      <c r="X130">
+        <v>140.26900000000001</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z130">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>42975.415972222225</v>
       </c>
@@ -3981,8 +6802,29 @@
       <c r="I131">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T131" s="1">
+        <v>42975.332638888889</v>
+      </c>
+      <c r="U131" s="1">
+        <v>42975.569560185184</v>
+      </c>
+      <c r="V131" s="2">
+        <v>-0.57850000000000001</v>
+      </c>
+      <c r="W131">
+        <v>140.2525</v>
+      </c>
+      <c r="X131">
+        <v>141.03149999999999</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z131">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>42976.415972222225</v>
       </c>
@@ -4007,8 +6849,29 @@
       <c r="I132">
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T132" s="1">
+        <v>42976.332766203705</v>
+      </c>
+      <c r="U132" s="1">
+        <v>42976.624548611115</v>
+      </c>
+      <c r="V132" s="2">
+        <v>-0.36899999999999999</v>
+      </c>
+      <c r="W132">
+        <v>141.09649999999999</v>
+      </c>
+      <c r="X132">
+        <v>140.5095</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z132">
+        <v>-0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>42977.415983796294</v>
       </c>
@@ -4033,8 +6896,29 @@
       <c r="I133" s="2">
         <v>-5.6500000000000002E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T133" s="1">
+        <v>42977.33289351852</v>
+      </c>
+      <c r="U133" s="1">
+        <v>42977.624675925923</v>
+      </c>
+      <c r="V133">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="W133">
+        <v>140.65899999999999</v>
+      </c>
+      <c r="X133">
+        <v>141.648</v>
+      </c>
+      <c r="Y133" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z133">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>42978.415995370371</v>
       </c>
@@ -4059,8 +6943,29 @@
       <c r="I134">
         <v>9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T134" s="1">
+        <v>42978.333124999997</v>
+      </c>
+      <c r="U134" s="1">
+        <v>42978.624907407408</v>
+      </c>
+      <c r="V134">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="W134">
+        <v>141.6465</v>
+      </c>
+      <c r="X134">
+        <v>142.53749999999999</v>
+      </c>
+      <c r="Y134" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z134">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>42979.415995370371</v>
       </c>
@@ -4085,8 +6990,29 @@
       <c r="I135" s="2">
         <v>-0.317</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T135" s="1">
+        <v>42979.332662037035</v>
+      </c>
+      <c r="U135" s="1">
+        <v>42979.624444444446</v>
+      </c>
+      <c r="V135">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="W135">
+        <v>142.48099999999999</v>
+      </c>
+      <c r="X135">
+        <v>142.4265</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z135">
+        <v>-5.45E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>42982.415972222225</v>
       </c>
@@ -4111,8 +7037,29 @@
       <c r="I136">
         <v>9.2499999999999999E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T136" s="1">
+        <v>42982.332638888889</v>
+      </c>
+      <c r="U136" s="1">
+        <v>42982.624421296299</v>
+      </c>
+      <c r="V136" s="2">
+        <v>-0.157</v>
+      </c>
+      <c r="W136">
+        <v>142.1275</v>
+      </c>
+      <c r="X136">
+        <v>142.36850000000001</v>
+      </c>
+      <c r="Y136" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z136">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>42983.415972222225</v>
       </c>
@@ -4137,8 +7084,29 @@
       <c r="I137">
         <v>0.29799999999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T137" s="1">
+        <v>42983.332766203705</v>
+      </c>
+      <c r="U137" s="1">
+        <v>42983.624548611115</v>
+      </c>
+      <c r="V137" s="3">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="W137">
+        <v>142.12950000000001</v>
+      </c>
+      <c r="X137">
+        <v>141.80549999999999</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z137">
+        <v>-0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>42984.415972222225</v>
       </c>
@@ -4163,8 +7131,29 @@
       <c r="I138">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T138" s="1">
+        <v>42984.332997685182</v>
+      </c>
+      <c r="U138" s="1">
+        <v>42984.624780092592</v>
+      </c>
+      <c r="V138" s="2">
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="W138">
+        <v>141.80799999999999</v>
+      </c>
+      <c r="X138">
+        <v>141.6045</v>
+      </c>
+      <c r="Y138" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z138">
+        <v>-0.20349999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>42985.415972222225</v>
       </c>
@@ -4189,8 +7178,29 @@
       <c r="I139">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T139" s="1">
+        <v>42985.333124999997</v>
+      </c>
+      <c r="U139" s="1">
+        <v>42985.624907407408</v>
+      </c>
+      <c r="V139" s="2">
+        <v>-0.19350000000000001</v>
+      </c>
+      <c r="W139">
+        <v>141.74299999999999</v>
+      </c>
+      <c r="X139">
+        <v>142.45249999999999</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z139">
+        <v>0.70950000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>42986.415972222225</v>
       </c>
@@ -4215,8 +7225,29 @@
       <c r="I140">
         <v>0.35649999999999998</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T140" s="1">
+        <v>42986.333252314813</v>
+      </c>
+      <c r="U140" s="1">
+        <v>42986.624340277776</v>
+      </c>
+      <c r="V140" s="4">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="W140">
+        <v>142.46549999999999</v>
+      </c>
+      <c r="X140">
+        <v>142.00049999999999</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z140">
+        <v>-0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>42989.415972222225</v>
       </c>
@@ -4241,8 +7272,29 @@
       <c r="I141" s="2">
         <v>-0.2155</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T141" s="1">
+        <v>42989.332638888889</v>
+      </c>
+      <c r="U141" s="1">
+        <v>42989.624421296299</v>
+      </c>
+      <c r="V141" s="2">
+        <v>-0.16950000000000001</v>
+      </c>
+      <c r="W141">
+        <v>141.97049999999999</v>
+      </c>
+      <c r="X141">
+        <v>142.9265</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z141">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>42990.415983796294</v>
       </c>
@@ -4267,8 +7319,29 @@
       <c r="I142" s="2">
         <v>-5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T142" s="1">
+        <v>42990.332766203705</v>
+      </c>
+      <c r="U142" s="1">
+        <v>42990.624548611115</v>
+      </c>
+      <c r="V142">
+        <v>0.1895</v>
+      </c>
+      <c r="W142">
+        <v>142.77500000000001</v>
+      </c>
+      <c r="X142">
+        <v>143.96549999999999</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z142">
+        <v>1.1904999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>42991.415995370371</v>
       </c>
@@ -4293,8 +7366,29 @@
       <c r="I143" s="2">
         <v>-7.3499999999999996E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T143" s="1">
+        <v>42991.332997685182</v>
+      </c>
+      <c r="U143" s="1">
+        <v>42991.624780092592</v>
+      </c>
+      <c r="V143" s="2">
+        <v>-0.123</v>
+      </c>
+      <c r="W143">
+        <v>144.047</v>
+      </c>
+      <c r="X143">
+        <v>146.5615</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z143">
+        <v>2.5145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>42992.416006944448</v>
       </c>
@@ -4319,8 +7413,29 @@
       <c r="I144" s="2">
         <v>-0.14449999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T144" s="1">
+        <v>42992.333124999997</v>
+      </c>
+      <c r="U144" s="1">
+        <v>42992.624907407408</v>
+      </c>
+      <c r="V144">
+        <v>0.129</v>
+      </c>
+      <c r="W144">
+        <v>146.36349999999999</v>
+      </c>
+      <c r="X144">
+        <v>146.03100000000001</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z144">
+        <v>-0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>42993.416018518517</v>
       </c>
@@ -4345,8 +7460,29 @@
       <c r="I145">
         <v>0.64600000000000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T145" s="1">
+        <v>42993.332662037035</v>
+      </c>
+      <c r="U145" s="1">
+        <v>42993.624444444446</v>
+      </c>
+      <c r="V145" s="3">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="W145">
+        <v>145.92949999999999</v>
+      </c>
+      <c r="X145">
+        <v>147.30199999999999</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z145">
+        <v>1.3725000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>42996.415972222225</v>
       </c>
@@ -4371,8 +7507,29 @@
       <c r="I146" s="2">
         <v>-2.9499999999999998E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T146" s="1">
+        <v>42996.332638888889</v>
+      </c>
+      <c r="U146" s="1">
+        <v>42996.624421296299</v>
+      </c>
+      <c r="V146">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="W146">
+        <v>147.70400000000001</v>
+      </c>
+      <c r="X146">
+        <v>150.7885</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z146">
+        <v>3.0844999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>42997.415983796294</v>
       </c>
@@ -4397,8 +7554,29 @@
       <c r="I147">
         <v>0.70299999999999996</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T147" s="1">
+        <v>42997.332870370374</v>
+      </c>
+      <c r="U147" s="1">
+        <v>42997.578819444447</v>
+      </c>
+      <c r="V147" s="2">
+        <v>-0.50549999999999995</v>
+      </c>
+      <c r="W147">
+        <v>151.011</v>
+      </c>
+      <c r="X147">
+        <v>150.6525</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z147">
+        <v>-0.35849999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>42998.415983796294</v>
       </c>
@@ -4423,8 +7601,29 @@
       <c r="I148" s="2">
         <v>-7.9500000000000001E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T148" s="1">
+        <v>42998.332997685182</v>
+      </c>
+      <c r="U148" s="1">
+        <v>42998.624780092592</v>
+      </c>
+      <c r="V148" s="2">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="W148">
+        <v>150.55699999999999</v>
+      </c>
+      <c r="X148">
+        <v>150.738</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z148">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>42999.415995370371</v>
       </c>
@@ -4449,8 +7648,29 @@
       <c r="I149">
         <v>8.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T149" s="1">
+        <v>42999.333124999997</v>
+      </c>
+      <c r="U149" s="1">
+        <v>42999.624907407408</v>
+      </c>
+      <c r="V149" s="2">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="W149">
+        <v>150.70650000000001</v>
+      </c>
+      <c r="X149">
+        <v>151.75200000000001</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z149">
+        <v>1.0455000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43000.415995370371</v>
       </c>
@@ -4475,8 +7695,29 @@
       <c r="I150">
         <v>0.29649999999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T150" s="1">
+        <v>43000.333252314813</v>
+      </c>
+      <c r="U150" s="1">
+        <v>43000.433368055557</v>
+      </c>
+      <c r="V150" s="2">
+        <v>-0.54949999999999999</v>
+      </c>
+      <c r="W150">
+        <v>151.5855</v>
+      </c>
+      <c r="X150">
+        <v>152.65950000000001</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z150">
+        <v>1.0740000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43003.415972222225</v>
       </c>
@@ -4501,8 +7742,29 @@
       <c r="I151" s="2">
         <v>-0.16300000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T151" s="1">
+        <v>43003.332638888889</v>
+      </c>
+      <c r="U151" s="1">
+        <v>43003.624421296299</v>
+      </c>
+      <c r="V151" s="2">
+        <v>-0.29699999999999999</v>
+      </c>
+      <c r="W151">
+        <v>152.6585</v>
+      </c>
+      <c r="X151">
+        <v>151.69649999999999</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z151">
+        <v>-0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43004.415983796294</v>
       </c>
@@ -4527,8 +7789,29 @@
       <c r="I152">
         <v>6.9500000000000006E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T152" s="1">
+        <v>43004.332766203705</v>
+      </c>
+      <c r="U152" s="1">
+        <v>43004.624548611115</v>
+      </c>
+      <c r="V152">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="W152">
+        <v>151.346</v>
+      </c>
+      <c r="X152">
+        <v>150.58699999999999</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z152">
+        <v>-0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43005.415983796294</v>
       </c>
@@ -4553,8 +7836,29 @@
       <c r="I153" s="2">
         <v>-0.28299999999999997</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T153" s="1">
+        <v>43005.332997685182</v>
+      </c>
+      <c r="U153" s="1">
+        <v>43005.624780092592</v>
+      </c>
+      <c r="V153" s="2">
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="W153">
+        <v>150.41550000000001</v>
+      </c>
+      <c r="X153">
+        <v>151.05799999999999</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z153">
+        <v>0.64249999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43006.415995370371</v>
       </c>
@@ -4579,8 +7883,29 @@
       <c r="I154" s="2">
         <v>-0.1065</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T154" s="1">
+        <v>43006.333124999997</v>
+      </c>
+      <c r="U154" s="1">
+        <v>43006.624907407408</v>
+      </c>
+      <c r="V154">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="W154">
+        <v>151.07900000000001</v>
+      </c>
+      <c r="X154">
+        <v>151.226</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z154">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43007.416006944448</v>
       </c>
@@ -4605,8 +7930,29 @@
       <c r="I155" s="2">
         <v>-8.5500000000000007E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T155" s="1">
+        <v>43007.332662037035</v>
+      </c>
+      <c r="U155" s="1">
+        <v>43007.624444444446</v>
+      </c>
+      <c r="V155" s="2">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="W155">
+        <v>151.10749999999999</v>
+      </c>
+      <c r="X155">
+        <v>151.07050000000001</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z155">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43010.415972222225</v>
       </c>
@@ -4631,8 +7977,29 @@
       <c r="I156">
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T156" s="1">
+        <v>43010.332638888889</v>
+      </c>
+      <c r="U156" s="1">
+        <v>43010.624421296299</v>
+      </c>
+      <c r="V156">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="W156">
+        <v>150.9425</v>
+      </c>
+      <c r="X156">
+        <v>150.88749999999999</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z156">
+        <v>-5.5E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43011.415972222225</v>
       </c>
@@ -4657,8 +8024,29 @@
       <c r="I157">
         <v>0.13950000000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T157" s="1">
+        <v>43011.332870370374</v>
+      </c>
+      <c r="U157" s="1">
+        <v>43011.624652777777</v>
+      </c>
+      <c r="V157" s="2">
+        <v>-0.28050000000000003</v>
+      </c>
+      <c r="W157">
+        <v>150.54</v>
+      </c>
+      <c r="X157">
+        <v>149.58500000000001</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z157">
+        <v>-0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43012.415972222225</v>
       </c>
@@ -4683,8 +8071,29 @@
       <c r="I158" s="2">
         <v>-8.8499999999999995E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T158" s="1">
+        <v>43012.332997685182</v>
+      </c>
+      <c r="U158" s="1">
+        <v>43012.624780092592</v>
+      </c>
+      <c r="V158" s="2">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="W158">
+        <v>149.67699999999999</v>
+      </c>
+      <c r="X158">
+        <v>149.36349999999999</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z158">
+        <v>-0.3135</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43013.415983796294</v>
       </c>
@@ -4709,8 +8118,29 @@
       <c r="I159" s="2">
         <v>-2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T159" s="1">
+        <v>43013.333124999997</v>
+      </c>
+      <c r="U159" s="1">
+        <v>43013.624907407408</v>
+      </c>
+      <c r="V159">
+        <v>0.1125</v>
+      </c>
+      <c r="W159">
+        <v>149.429</v>
+      </c>
+      <c r="X159">
+        <v>149.34549999999999</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z159">
+        <v>-8.3500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43014.415995370371</v>
       </c>
@@ -4735,8 +8165,29 @@
       <c r="I160">
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T160" s="1">
+        <v>43014.332662037035</v>
+      </c>
+      <c r="U160" s="1">
+        <v>43014.624444444446</v>
+      </c>
+      <c r="V160">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="W160">
+        <v>149.339</v>
+      </c>
+      <c r="X160">
+        <v>147.9725</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z160">
+        <v>-1.3665</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43017.415972222225</v>
       </c>
@@ -4761,8 +8212,29 @@
       <c r="I161">
         <v>0.28050000000000003</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T161" s="1">
+        <v>43017.332638888889</v>
+      </c>
+      <c r="U161" s="1">
+        <v>43017.624421296299</v>
+      </c>
+      <c r="V161" s="2">
+        <v>-0.40949999999999998</v>
+      </c>
+      <c r="W161">
+        <v>147.9905</v>
+      </c>
+      <c r="X161">
+        <v>147.154</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z161">
+        <v>-0.83650000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43018.415972222225</v>
       </c>
@@ -4787,8 +8259,29 @@
       <c r="I162">
         <v>0.1065</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T162" s="1">
+        <v>43018.332766203705</v>
+      </c>
+      <c r="U162" s="1">
+        <v>43018.624548611115</v>
+      </c>
+      <c r="V162" s="4">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="W162">
+        <v>147.37200000000001</v>
+      </c>
+      <c r="X162">
+        <v>148.00749999999999</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z162">
+        <v>0.63549999999999995</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43019.415972222225</v>
       </c>
@@ -4813,8 +8306,29 @@
       <c r="I163" s="2">
         <v>-0.219</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T163" s="1">
+        <v>43019.332997685182</v>
+      </c>
+      <c r="U163" s="1">
+        <v>43019.624780092592</v>
+      </c>
+      <c r="V163" s="2">
+        <v>-0.159</v>
+      </c>
+      <c r="W163">
+        <v>148.053</v>
+      </c>
+      <c r="X163">
+        <v>148.40700000000001</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z163">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43020.415983796294</v>
       </c>
@@ -4839,8 +8353,29 @@
       <c r="I164">
         <v>5.8500000000000003E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T164" s="1">
+        <v>43020.333124999997</v>
+      </c>
+      <c r="U164" s="1">
+        <v>43020.624907407408</v>
+      </c>
+      <c r="V164">
+        <v>0.1065</v>
+      </c>
+      <c r="W164">
+        <v>148.35900000000001</v>
+      </c>
+      <c r="X164">
+        <v>148.7825</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z164">
+        <v>0.42349999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43021.415983796294</v>
       </c>
@@ -4865,8 +8400,29 @@
       <c r="I165" s="2">
         <v>-4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T165" s="1">
+        <v>43021.332662037035</v>
+      </c>
+      <c r="U165" s="1">
+        <v>43021.624444444446</v>
+      </c>
+      <c r="V165" s="2">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="W165">
+        <v>148.785</v>
+      </c>
+      <c r="X165">
+        <v>148.95650000000001</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z165">
+        <v>0.17150000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43024.415972222225</v>
       </c>
@@ -4891,8 +8447,29 @@
       <c r="I166" s="2">
         <v>-0.24249999999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T166" s="1">
+        <v>43024.332638888889</v>
+      </c>
+      <c r="U166" s="1">
+        <v>43024.624421296299</v>
+      </c>
+      <c r="V166" s="2">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="W166">
+        <v>148.916</v>
+      </c>
+      <c r="X166">
+        <v>148.65299999999999</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z166">
+        <v>-0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43025.415983796294</v>
       </c>
@@ -4917,8 +8494,29 @@
       <c r="I167" s="2">
         <v>-8.1500000000000003E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T167" s="1">
+        <v>43025.332766203705</v>
+      </c>
+      <c r="U167" s="1">
+        <v>43025.624548611115</v>
+      </c>
+      <c r="V167" s="2">
+        <v>-4.2500000000000003E-2</v>
+      </c>
+      <c r="W167">
+        <v>148.791</v>
+      </c>
+      <c r="X167">
+        <v>148.589</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z167">
+        <v>-0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43026.415995370371</v>
       </c>
@@ -4943,8 +8541,29 @@
       <c r="I168" s="2">
         <v>-6.5000000000200002E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T168" s="1">
+        <v>43026.33289351852</v>
+      </c>
+      <c r="U168" s="1">
+        <v>43026.624675925923</v>
+      </c>
+      <c r="V168" s="2">
+        <v>-3.5499999999999997E-2</v>
+      </c>
+      <c r="W168">
+        <v>148.59800000000001</v>
+      </c>
+      <c r="X168">
+        <v>147.982</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z168">
+        <v>-0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43027.416006944448</v>
       </c>
@@ -4969,8 +8588,29 @@
       <c r="I169" s="2">
         <v>-7.9500000000000001E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T169" s="1">
+        <v>43027.333020833335</v>
+      </c>
+      <c r="U169" s="1">
+        <v>43027.624803240738</v>
+      </c>
+      <c r="V169" s="2">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="W169">
+        <v>147.99850000000001</v>
+      </c>
+      <c r="X169">
+        <v>149.34549999999999</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z169">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43028.416018518517</v>
       </c>
@@ -4995,8 +8635,29 @@
       <c r="I170">
         <v>0.127</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T170" s="1">
+        <v>43028.333148148151</v>
+      </c>
+      <c r="U170" s="1">
+        <v>43028.624930555554</v>
+      </c>
+      <c r="V170" s="2">
+        <v>-0.22450000000000001</v>
+      </c>
+      <c r="W170">
+        <v>149.15450000000001</v>
+      </c>
+      <c r="X170">
+        <v>148.137</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z170">
+        <v>-1.0175000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43031.415972222225</v>
       </c>
@@ -5021,8 +8682,29 @@
       <c r="I171" s="2">
         <v>-0.154</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T171" s="1">
+        <v>43031.332638888889</v>
+      </c>
+      <c r="U171" s="1">
+        <v>43031.624421296299</v>
+      </c>
+      <c r="V171">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="W171">
+        <v>148.0635</v>
+      </c>
+      <c r="X171">
+        <v>150.13</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z171">
+        <v>2.0665</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43032.415983796294</v>
       </c>
@@ -5047,8 +8729,29 @@
       <c r="I172" s="2">
         <v>-0.28499999999999998</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T172" s="1">
+        <v>43032.332870370374</v>
+      </c>
+      <c r="U172" s="1">
+        <v>43032.624652777777</v>
+      </c>
+      <c r="V172" s="2">
+        <v>-0.29199999999999998</v>
+      </c>
+      <c r="W172">
+        <v>150.11199999999999</v>
+      </c>
+      <c r="X172">
+        <v>149.69450000000001</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z172">
+        <v>-0.41749999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>43033.415995370371</v>
       </c>
@@ -5073,8 +8776,29 @@
       <c r="I173" s="2">
         <v>-8.7499999999999994E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T173" s="1">
+        <v>43033.332997685182</v>
+      </c>
+      <c r="U173" s="1">
+        <v>43033.624780092592</v>
+      </c>
+      <c r="V173">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="W173">
+        <v>149.75399999999999</v>
+      </c>
+      <c r="X173">
+        <v>149.65450000000001</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z173">
+        <v>-9.9500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>43034.416006944448</v>
       </c>
@@ -5099,8 +8823,29 @@
       <c r="I174" s="2">
         <v>-0.23549999999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T174" s="1">
+        <v>43034.333229166667</v>
+      </c>
+      <c r="U174" s="1">
+        <v>43034.62431712963</v>
+      </c>
+      <c r="V174" s="2">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="W174">
+        <v>149.56200000000001</v>
+      </c>
+      <c r="X174">
+        <v>150.75049999999999</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z174">
+        <v>1.1884999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>43035.416018518517</v>
       </c>
@@ -5125,8 +8870,29 @@
       <c r="I175" s="2">
         <v>-4.7500000000000001E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T175" s="1">
+        <v>43035.332662037035</v>
+      </c>
+      <c r="U175" s="1">
+        <v>43035.624444444446</v>
+      </c>
+      <c r="V175">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="W175">
+        <v>150.78749999999999</v>
+      </c>
+      <c r="X175">
+        <v>149.90799999999999</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z175">
+        <v>-0.87949999999999995</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>43038.415972222225</v>
       </c>
@@ -5151,8 +8917,29 @@
       <c r="I176" s="2">
         <v>-2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T176" s="1">
+        <v>43038.332638888889</v>
+      </c>
+      <c r="U176" s="1">
+        <v>43038.624421296299</v>
+      </c>
+      <c r="V176" s="2">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="W176">
+        <v>149.947</v>
+      </c>
+      <c r="X176">
+        <v>149.28899999999999</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z176">
+        <v>-0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>43039.415983796294</v>
       </c>
@@ -5177,8 +8964,29 @@
       <c r="I177" s="2">
         <v>-9.4500000000000001E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T177" s="1">
+        <v>43039.332766203705</v>
+      </c>
+      <c r="U177" s="1">
+        <v>43039.624548611115</v>
+      </c>
+      <c r="V177">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="W177">
+        <v>149.334</v>
+      </c>
+      <c r="X177">
+        <v>149.3955</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z177">
+        <v>6.1499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>43040.415995370371</v>
       </c>
@@ -5203,8 +9011,29 @@
       <c r="I178">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T178" s="1">
+        <v>43040.332997685182</v>
+      </c>
+      <c r="U178" s="1">
+        <v>43040.624780092592</v>
+      </c>
+      <c r="V178">
+        <v>0.2445</v>
+      </c>
+      <c r="W178">
+        <v>149.44900000000001</v>
+      </c>
+      <c r="X178">
+        <v>151.01</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z178">
+        <v>1.5609999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>43041.415995370371</v>
       </c>
@@ -5229,8 +9058,29 @@
       <c r="I179">
         <v>0.1115</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T179" s="1">
+        <v>43041.333229166667</v>
+      </c>
+      <c r="U179" s="1">
+        <v>43041.62431712963</v>
+      </c>
+      <c r="V179">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="W179">
+        <v>151.00149999999999</v>
+      </c>
+      <c r="X179">
+        <v>151.24449999999999</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z179">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>43042.415995370371</v>
       </c>
@@ -5255,8 +9105,29 @@
       <c r="I180" s="2">
         <v>-0.24199999999999999</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T180" s="1">
+        <v>43042.332766203705</v>
+      </c>
+      <c r="U180" s="1">
+        <v>43042.624548611115</v>
+      </c>
+      <c r="V180" s="2">
+        <v>-0.126</v>
+      </c>
+      <c r="W180">
+        <v>151.23050000000001</v>
+      </c>
+      <c r="X180">
+        <v>148.87</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z180">
+        <v>-2.3605</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>43045.415972222225</v>
       </c>
@@ -5281,8 +9152,29 @@
       <c r="I181" s="2">
         <v>-8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T181" s="1">
+        <v>43045.332638888889</v>
+      </c>
+      <c r="U181" s="1">
+        <v>43045.624421296299</v>
+      </c>
+      <c r="V181">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="W181">
+        <v>148.98650000000001</v>
+      </c>
+      <c r="X181">
+        <v>149.23599999999999</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z181">
+        <v>0.2495</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>43046.415983796294</v>
       </c>
@@ -5307,8 +9199,29 @@
       <c r="I182" s="2">
         <v>-0.23350000000000001</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T182" s="1">
+        <v>43046.332870370374</v>
+      </c>
+      <c r="U182" s="1">
+        <v>43046.624652777777</v>
+      </c>
+      <c r="V182">
+        <v>0.18049999999999999</v>
+      </c>
+      <c r="W182">
+        <v>149.072</v>
+      </c>
+      <c r="X182">
+        <v>149.887</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z182">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>43047.415995370371</v>
       </c>
@@ -5333,8 +9246,29 @@
       <c r="I183" s="2">
         <v>-5.5000000000100004E-3</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T183" s="1">
+        <v>43047.333101851851</v>
+      </c>
+      <c r="U183" s="1">
+        <v>43047.624884259261</v>
+      </c>
+      <c r="V183" s="2">
+        <v>-9.0499999999999997E-2</v>
+      </c>
+      <c r="W183">
+        <v>149.77350000000001</v>
+      </c>
+      <c r="X183">
+        <v>149.92349999999999</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z183">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>43048.416006944448</v>
       </c>
@@ -5359,8 +9293,29 @@
       <c r="I184" s="2">
         <v>-0.51249999999999996</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T184" s="1">
+        <v>43048.333229166667</v>
+      </c>
+      <c r="U184" s="1">
+        <v>43048.62431712963</v>
+      </c>
+      <c r="V184">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="W184">
+        <v>150.08850000000001</v>
+      </c>
+      <c r="X184">
+        <v>149.33250000000001</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z184">
+        <v>-0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43049.416018518517</v>
       </c>
@@ -5385,8 +9340,29 @@
       <c r="I185" s="2">
         <v>-0.19900000000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T185" s="1">
+        <v>43049.332766203705</v>
+      </c>
+      <c r="U185" s="1">
+        <v>43049.624548611115</v>
+      </c>
+      <c r="V185" s="2">
+        <v>-8.8499999999999995E-2</v>
+      </c>
+      <c r="W185">
+        <v>149.35249999999999</v>
+      </c>
+      <c r="X185">
+        <v>149.11600000000001</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z185">
+        <v>-0.23649999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>43052.415972222225</v>
       </c>
@@ -5411,8 +9387,29 @@
       <c r="I186">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T186" s="1">
+        <v>43052.332638888889</v>
+      </c>
+      <c r="U186" s="1">
+        <v>43052.38553240741</v>
+      </c>
+      <c r="V186" s="2">
+        <v>-0.51349999999999996</v>
+      </c>
+      <c r="W186">
+        <v>149.16149999999999</v>
+      </c>
+      <c r="X186">
+        <v>149.59800000000001</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z186">
+        <v>0.4365</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>43053.415972222225</v>
       </c>
@@ -5437,8 +9434,29 @@
       <c r="I187" s="2">
         <v>-7.9500000000000001E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T187" s="1">
+        <v>43053.332766203705</v>
+      </c>
+      <c r="U187" s="1">
+        <v>43053.624548611115</v>
+      </c>
+      <c r="V187" s="2">
+        <v>-8.5500000000000007E-2</v>
+      </c>
+      <c r="W187">
+        <v>149.39099999999999</v>
+      </c>
+      <c r="X187">
+        <v>148.97900000000001</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z187">
+        <v>-0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>43054.415983796294</v>
       </c>
@@ -5463,8 +9481,29 @@
       <c r="I188">
         <v>0.52200000000000002</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T188" s="1">
+        <v>43054.33289351852</v>
+      </c>
+      <c r="U188" s="1">
+        <v>43054.434398148151</v>
+      </c>
+      <c r="V188" s="2">
+        <v>-0.50649999999999995</v>
+      </c>
+      <c r="W188">
+        <v>149.03149999999999</v>
+      </c>
+      <c r="X188">
+        <v>149.34100000000001</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z188">
+        <v>0.3095</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>43055.415983796294</v>
       </c>
@@ -5489,8 +9528,29 @@
       <c r="I189">
         <v>0.14649999999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T189" s="1">
+        <v>43055.333020833335</v>
+      </c>
+      <c r="U189" s="1">
+        <v>43055.624803240738</v>
+      </c>
+      <c r="V189" s="2">
+        <v>-0.25850000000000001</v>
+      </c>
+      <c r="W189">
+        <v>149.37</v>
+      </c>
+      <c r="X189">
+        <v>148.691</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z189">
+        <v>-0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>43056.415983796294</v>
       </c>
@@ -5515,8 +9575,29 @@
       <c r="I190">
         <v>0.19550000000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T190" s="1">
+        <v>43056.333148148151</v>
+      </c>
+      <c r="U190" s="1">
+        <v>43056.624930555554</v>
+      </c>
+      <c r="V190" s="2">
+        <v>-0.27050000000000002</v>
+      </c>
+      <c r="W190">
+        <v>148.67449999999999</v>
+      </c>
+      <c r="X190">
+        <v>149.21950000000001</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z190">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43059.415972222225</v>
       </c>
@@ -5541,8 +9622,29 @@
       <c r="I191">
         <v>6.5500000000000003E-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T191" s="1">
+        <v>43059.332638888889</v>
+      </c>
+      <c r="U191" s="1">
+        <v>43059.624421296299</v>
+      </c>
+      <c r="V191">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="W191">
+        <v>149.16800000000001</v>
+      </c>
+      <c r="X191">
+        <v>148.255</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z191">
+        <v>-0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43060.415972222225</v>
       </c>
@@ -5567,8 +9669,29 @@
       <c r="I192" s="2">
         <v>-3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T192" s="1">
+        <v>43060.332870370374</v>
+      </c>
+      <c r="U192" s="1">
+        <v>43060.624652777777</v>
+      </c>
+      <c r="V192">
+        <v>7.85E-2</v>
+      </c>
+      <c r="W192">
+        <v>148.25200000000001</v>
+      </c>
+      <c r="X192">
+        <v>149.02250000000001</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z192">
+        <v>0.77049999999999996</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43061.415983796294</v>
       </c>
@@ -5593,8 +9716,29 @@
       <c r="I193">
         <v>9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T193" s="1">
+        <v>43061.333101851851</v>
+      </c>
+      <c r="U193" s="1">
+        <v>43061.624884259261</v>
+      </c>
+      <c r="V193">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="W193">
+        <v>149.04650000000001</v>
+      </c>
+      <c r="X193">
+        <v>148.94499999999999</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z193">
+        <v>-0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43062.415983796294</v>
       </c>
@@ -5619,8 +9763,29 @@
       <c r="I194" s="2">
         <v>-0.309</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T194" s="1">
+        <v>43062.332638888889</v>
+      </c>
+      <c r="U194" s="1">
+        <v>43062.624421296299</v>
+      </c>
+      <c r="V194" s="2">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="W194">
+        <v>148.852</v>
+      </c>
+      <c r="X194">
+        <v>148.23050000000001</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z194">
+        <v>-0.62150000000000005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43063.415995370371</v>
       </c>
@@ -5645,8 +9810,29 @@
       <c r="I195">
         <v>6.9000000000000006E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T195" s="1">
+        <v>43063.332766203705</v>
+      </c>
+      <c r="U195" s="1">
+        <v>43063.624548611115</v>
+      </c>
+      <c r="V195" s="2">
+        <v>-0.1245</v>
+      </c>
+      <c r="W195">
+        <v>148.203</v>
+      </c>
+      <c r="X195">
+        <v>148.0675</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z195">
+        <v>-0.13550000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43066.415972222225</v>
       </c>
@@ -5671,8 +9857,29 @@
       <c r="I196">
         <v>0.35899999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T196" s="1">
+        <v>43066.332638888889</v>
+      </c>
+      <c r="U196" s="1">
+        <v>43066.624421296299</v>
+      </c>
+      <c r="V196" s="2">
+        <v>-0.36699999999999999</v>
+      </c>
+      <c r="W196">
+        <v>148.00200000000001</v>
+      </c>
+      <c r="X196">
+        <v>148.71799999999999</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z196">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43067.415972222225</v>
       </c>
@@ -5697,8 +9904,29 @@
       <c r="I197" s="2">
         <v>-0.25650000000000001</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T197" s="1">
+        <v>43067.332766203705</v>
+      </c>
+      <c r="U197" s="1">
+        <v>43067.624548611115</v>
+      </c>
+      <c r="V197" s="2">
+        <v>-0.224</v>
+      </c>
+      <c r="W197">
+        <v>148.58799999999999</v>
+      </c>
+      <c r="X197">
+        <v>147.959</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z197">
+        <v>-0.629</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43068.415983796294</v>
       </c>
@@ -5723,8 +9951,29 @@
       <c r="I198" s="2">
         <v>-4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T198" s="1">
+        <v>43068.33289351852</v>
+      </c>
+      <c r="U198" s="1">
+        <v>43068.624675925923</v>
+      </c>
+      <c r="V198">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="W198">
+        <v>147.97450000000001</v>
+      </c>
+      <c r="X198">
+        <v>148.98099999999999</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z198">
+        <v>1.0065</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43069.415995370371</v>
       </c>
@@ -5749,8 +9998,29 @@
       <c r="I199" s="2">
         <v>-0.55249999999999999</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T199" s="1">
+        <v>43069.333124999997</v>
+      </c>
+      <c r="U199" s="1">
+        <v>43069.624907407408</v>
+      </c>
+      <c r="V199" s="3">
+        <v>0.78849999999999998</v>
+      </c>
+      <c r="W199">
+        <v>148.72</v>
+      </c>
+      <c r="X199">
+        <v>150.23099999999999</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z199">
+        <v>1.5109999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43070.416006944448</v>
       </c>
@@ -5775,8 +10045,29 @@
       <c r="I200">
         <v>6.6500000000000004E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T200" s="1">
+        <v>43070.332662037035</v>
+      </c>
+      <c r="U200" s="1">
+        <v>43070.624444444446</v>
+      </c>
+      <c r="V200">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="W200">
+        <v>150.1</v>
+      </c>
+      <c r="X200">
+        <v>152.25450000000001</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z200">
+        <v>2.1545000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43073.415972222225</v>
       </c>
@@ -5801,8 +10092,29 @@
       <c r="I201" s="2">
         <v>-0.129</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T201" s="1">
+        <v>43073.332638888889</v>
+      </c>
+      <c r="U201" s="1">
+        <v>43073.624421296299</v>
+      </c>
+      <c r="V201">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="W201">
+        <v>152.227</v>
+      </c>
+      <c r="X201">
+        <v>151.9135</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z201">
+        <v>-0.3135</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43074.415983796294</v>
       </c>
@@ -5827,8 +10139,29 @@
       <c r="I202" s="2">
         <v>-0.1605</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T202" s="1">
+        <v>43074.332870370374</v>
+      </c>
+      <c r="U202" s="1">
+        <v>43074.624652777777</v>
+      </c>
+      <c r="V202">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="W202">
+        <v>151.572</v>
+      </c>
+      <c r="X202">
+        <v>151.601</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z202">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43075.415995370371</v>
       </c>
@@ -5853,8 +10186,29 @@
       <c r="I203">
         <v>0.34949999999999998</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T203" s="1">
+        <v>43075.333101851851</v>
+      </c>
+      <c r="U203" s="1">
+        <v>43075.624884259261</v>
+      </c>
+      <c r="V203" s="3">
+        <v>0.57950000000000002</v>
+      </c>
+      <c r="W203">
+        <v>151.51949999999999</v>
+      </c>
+      <c r="X203">
+        <v>151.09800000000001</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z203">
+        <v>-0.42149999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43076.416006944448</v>
       </c>
@@ -5879,8 +10233,29 @@
       <c r="I204" s="2">
         <v>-0.10150000000000001</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T204" s="1">
+        <v>43076.332638888889</v>
+      </c>
+      <c r="U204" s="1">
+        <v>43076.624421296299</v>
+      </c>
+      <c r="V204" s="2">
+        <v>-0.23</v>
+      </c>
+      <c r="W204">
+        <v>151.36199999999999</v>
+      </c>
+      <c r="X204">
+        <v>150.17599999999999</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z204">
+        <v>-1.1859999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43077.416018518517</v>
       </c>
@@ -5905,8 +10280,29 @@
       <c r="I205">
         <v>0.74650000000000005</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T205" s="1">
+        <v>43077.332766203705</v>
+      </c>
+      <c r="U205" s="1">
+        <v>43077.624548611115</v>
+      </c>
+      <c r="V205" s="3">
+        <v>0.79449999999999998</v>
+      </c>
+      <c r="W205">
+        <v>150.37350000000001</v>
+      </c>
+      <c r="X205">
+        <v>152.41050000000001</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z205">
+        <v>2.0369999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43080.415972222225</v>
       </c>
@@ -5931,8 +10327,29 @@
       <c r="I206" s="2">
         <v>-6.6500000000000004E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T206" s="1">
+        <v>43080.332638888889</v>
+      </c>
+      <c r="U206" s="1">
+        <v>43080.624421296299</v>
+      </c>
+      <c r="V206" s="2">
+        <v>-9.4500000000000001E-2</v>
+      </c>
+      <c r="W206">
+        <v>152.375</v>
+      </c>
+      <c r="X206">
+        <v>152.0565</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z206">
+        <v>-0.31850000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43081.415983796294</v>
       </c>
@@ -5957,8 +10374,29 @@
       <c r="I207" s="2">
         <v>-0.1255</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T207" s="1">
+        <v>43081.332766203705</v>
+      </c>
+      <c r="U207" s="1">
+        <v>43081.624548611115</v>
+      </c>
+      <c r="V207">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="W207">
+        <v>151.93899999999999</v>
+      </c>
+      <c r="X207">
+        <v>151.47450000000001</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z207">
+        <v>-0.46450000000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43082.415995370371</v>
       </c>
@@ -5983,8 +10421,29 @@
       <c r="I208">
         <v>0.104</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T208" s="1">
+        <v>43082.332997685182</v>
+      </c>
+      <c r="U208" s="1">
+        <v>43082.624780092592</v>
+      </c>
+      <c r="V208">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="W208">
+        <v>151.48500000000001</v>
+      </c>
+      <c r="X208">
+        <v>151.20249999999999</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z208">
+        <v>-0.28249999999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43083.415995370371</v>
       </c>
@@ -6009,8 +10468,29 @@
       <c r="I209" s="2">
         <v>-0.107</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T209" s="1">
+        <v>43083.333229166667</v>
+      </c>
+      <c r="U209" s="1">
+        <v>43083.62431712963</v>
+      </c>
+      <c r="V209" s="2">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="W209">
+        <v>151.227</v>
+      </c>
+      <c r="X209">
+        <v>151.114</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z209">
+        <v>-0.113</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43084.416006944448</v>
       </c>
@@ -6035,8 +10515,29 @@
       <c r="I210" s="2">
         <v>-5.6500000000000002E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T210" s="1">
+        <v>43084.332662037035</v>
+      </c>
+      <c r="U210" s="1">
+        <v>43084.624444444446</v>
+      </c>
+      <c r="V210" s="2">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="W210">
+        <v>150.99299999999999</v>
+      </c>
+      <c r="X210">
+        <v>150.85900000000001</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z210">
+        <v>-0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43087.415972222225</v>
       </c>
@@ -6061,8 +10562,29 @@
       <c r="I211">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T211" s="1">
+        <v>43087.332638888889</v>
+      </c>
+      <c r="U211" s="1">
+        <v>43087.624421296299</v>
+      </c>
+      <c r="V211" s="2">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="W211">
+        <v>150.96350000000001</v>
+      </c>
+      <c r="X211">
+        <v>150.01650000000001</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z211">
+        <v>-0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43088.415972222225</v>
       </c>
@@ -6087,8 +10609,29 @@
       <c r="I212" s="2">
         <v>-6.3500000000000001E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T212" s="1">
+        <v>43088.332766203705</v>
+      </c>
+      <c r="U212" s="1">
+        <v>43088.624548611115</v>
+      </c>
+      <c r="V212">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="W212">
+        <v>150.09700000000001</v>
+      </c>
+      <c r="X212">
+        <v>150.62049999999999</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z212">
+        <v>0.52349999999999997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43089.415983796294</v>
       </c>
@@ -6113,8 +10656,29 @@
       <c r="I213" s="2">
         <v>-2.0000000000099999E-3</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T213" s="1">
+        <v>43089.332997685182</v>
+      </c>
+      <c r="U213" s="1">
+        <v>43089.624780092592</v>
+      </c>
+      <c r="V213">
+        <v>0.1845</v>
+      </c>
+      <c r="W213">
+        <v>150.607</v>
+      </c>
+      <c r="X213">
+        <v>151.08699999999999</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z213">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43090.415995370371</v>
       </c>
@@ -6139,8 +10703,29 @@
       <c r="I214" s="2">
         <v>-0.1115</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T214" s="1">
+        <v>43090.333229166667</v>
+      </c>
+      <c r="U214" s="1">
+        <v>43090.62431712963</v>
+      </c>
+      <c r="V214" s="2">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="W214">
+        <v>151.10749999999999</v>
+      </c>
+      <c r="X214">
+        <v>151.571</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z214">
+        <v>0.46350000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43091.416006944448</v>
       </c>
@@ -6165,8 +10750,29 @@
       <c r="I215">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T215" s="1">
+        <v>43091.332662037035</v>
+      </c>
+      <c r="U215" s="1">
+        <v>43091.624444444446</v>
+      </c>
+      <c r="V215" s="2">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="W215">
+        <v>151.66749999999999</v>
+      </c>
+      <c r="X215">
+        <v>151.70500000000001</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z215">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43094.415972222225</v>
       </c>
@@ -6191,8 +10797,29 @@
       <c r="I216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T216" s="1">
+        <v>43094.332638888889</v>
+      </c>
+      <c r="U216" s="1">
+        <v>43094.624421296299</v>
+      </c>
+      <c r="V216">
+        <v>0</v>
+      </c>
+      <c r="W216">
+        <v>151.69300000000001</v>
+      </c>
+      <c r="X216">
+        <v>151.36799999999999</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z216">
+        <v>-0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43095.415972222225</v>
       </c>
@@ -6217,8 +10844,29 @@
       <c r="I217" s="2">
         <v>-8.6499999999999994E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T217" s="1">
+        <v>43095.332870370374</v>
+      </c>
+      <c r="U217" s="1">
+        <v>43095.624652777777</v>
+      </c>
+      <c r="V217" s="2">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="W217">
+        <v>151.36799999999999</v>
+      </c>
+      <c r="X217">
+        <v>151.53749999999999</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z217">
+        <v>0.16950000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43096.415983796294</v>
       </c>
@@ -6243,8 +10891,29 @@
       <c r="I218" s="2">
         <v>-9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T218" s="1">
+        <v>43096.332997685182</v>
+      </c>
+      <c r="U218" s="1">
+        <v>43096.624780092592</v>
+      </c>
+      <c r="V218" s="2">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="W218">
+        <v>151.41800000000001</v>
+      </c>
+      <c r="X218">
+        <v>151.38999999999999</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z218">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43097.415995370371</v>
       </c>
@@ -6269,8 +10938,29 @@
       <c r="I219" s="2">
         <v>-0.25950000000000001</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T219" s="1">
+        <v>43097.333124999997</v>
+      </c>
+      <c r="U219" s="1">
+        <v>43097.624907407408</v>
+      </c>
+      <c r="V219" s="2">
+        <v>-0.24049999999999999</v>
+      </c>
+      <c r="W219">
+        <v>151.44800000000001</v>
+      </c>
+      <c r="X219">
+        <v>151.79849999999999</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z219">
+        <v>0.35049999999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43098.416006944448</v>
       </c>
@@ -6295,8 +10985,29 @@
       <c r="I220" s="2">
         <v>-8.5500000000000007E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T220" s="1">
+        <v>43098.333252314813</v>
+      </c>
+      <c r="U220" s="1">
+        <v>43098.624340277776</v>
+      </c>
+      <c r="V220" s="2">
+        <v>-0.1275</v>
+      </c>
+      <c r="W220">
+        <v>151.887</v>
+      </c>
+      <c r="X220">
+        <v>151.6215</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z220">
+        <v>-0.26550000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43102.415972222225</v>
       </c>
@@ -6321,8 +11032,29 @@
       <c r="I221" s="2">
         <v>-4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T221" s="1">
+        <v>43102.332638888889</v>
+      </c>
+      <c r="U221" s="1">
+        <v>43102.624421296299</v>
+      </c>
+      <c r="V221">
+        <v>0.121</v>
+      </c>
+      <c r="W221">
+        <v>151.7225</v>
+      </c>
+      <c r="X221">
+        <v>152.21299999999999</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z221">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43103.415983796294</v>
       </c>
@@ -6347,8 +11079,29 @@
       <c r="I222">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T222" s="1">
+        <v>43103.332870370374</v>
+      </c>
+      <c r="U222" s="1">
+        <v>43103.624652777777</v>
+      </c>
+      <c r="V222">
+        <v>0.247</v>
+      </c>
+      <c r="W222">
+        <v>152.13999999999999</v>
+      </c>
+      <c r="X222">
+        <v>152.5335</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z222">
+        <v>0.39350000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43104.415983796294</v>
       </c>
@@ -6373,8 +11126,29 @@
       <c r="I223">
         <v>2.75E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T223" s="1">
+        <v>43104.333101851851</v>
+      </c>
+      <c r="U223" s="1">
+        <v>43104.624884259261</v>
+      </c>
+      <c r="V223" s="2">
+        <v>-0.1925</v>
+      </c>
+      <c r="W223">
+        <v>152.60749999999999</v>
+      </c>
+      <c r="X223">
+        <v>152.083</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z223">
+        <v>-0.52449999999999997</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43105.415983796294</v>
       </c>
@@ -6399,8 +11173,29 @@
       <c r="I224">
         <v>0.36099999999999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T224" s="1">
+        <v>43105.333229166667</v>
+      </c>
+      <c r="U224" s="1">
+        <v>43105.62431712963</v>
+      </c>
+      <c r="V224" s="3">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="W224">
+        <v>152.071</v>
+      </c>
+      <c r="X224">
+        <v>152.80549999999999</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z224">
+        <v>0.73450000000000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43108.415972222225</v>
       </c>
@@ -6425,8 +11220,29 @@
       <c r="I225" s="2">
         <v>-3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T225" s="1">
+        <v>43108.332638888889</v>
+      </c>
+      <c r="U225" s="1">
+        <v>43108.624421296299</v>
+      </c>
+      <c r="V225" s="2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="W225">
+        <v>152.79300000000001</v>
+      </c>
+      <c r="X225">
+        <v>153.49299999999999</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z225">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43109.415983796294</v>
       </c>
@@ -6451,8 +11267,29 @@
       <c r="I226">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T226" s="1">
+        <v>43109.332766203705</v>
+      </c>
+      <c r="U226" s="1">
+        <v>43109.443993055553</v>
+      </c>
+      <c r="V226" s="2">
+        <v>-0.53949999999999998</v>
+      </c>
+      <c r="W226">
+        <v>153.45500000000001</v>
+      </c>
+      <c r="X226">
+        <v>153.553</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z226">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43110.415983796294</v>
       </c>
@@ -6477,8 +11314,29 @@
       <c r="I227">
         <v>0.17249999999999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T227" s="1">
+        <v>43110.33289351852</v>
+      </c>
+      <c r="U227" s="1">
+        <v>43110.624675925923</v>
+      </c>
+      <c r="V227" s="3">
+        <v>0.61150000000000004</v>
+      </c>
+      <c r="W227">
+        <v>153.4385</v>
+      </c>
+      <c r="X227">
+        <v>152.50550000000001</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z227">
+        <v>-0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43111.415983796294</v>
       </c>
@@ -6503,8 +11361,29 @@
       <c r="I228">
         <v>0.36449999999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T228" s="1">
+        <v>43111.333124999997</v>
+      </c>
+      <c r="U228" s="1">
+        <v>43111.622129629628</v>
+      </c>
+      <c r="V228" s="2">
+        <v>-0.47349999999999998</v>
+      </c>
+      <c r="W228">
+        <v>152.53100000000001</v>
+      </c>
+      <c r="X228">
+        <v>150.46350000000001</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z228">
+        <v>-2.0674999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43112.415983796294</v>
       </c>
@@ -6529,8 +11408,29 @@
       <c r="I229" s="2">
         <v>-0.14399999999999999</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T229" s="1">
+        <v>43112.333252314813</v>
+      </c>
+      <c r="U229" s="1">
+        <v>43112.624340277776</v>
+      </c>
+      <c r="V229">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="W229">
+        <v>150.51300000000001</v>
+      </c>
+      <c r="X229">
+        <v>150.59399999999999</v>
+      </c>
+      <c r="Y229" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z229">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43115.415972222225</v>
       </c>
@@ -6555,8 +11455,29 @@
       <c r="I230">
         <v>7.4499999999999997E-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T230" s="1">
+        <v>43115.332638888889</v>
+      </c>
+      <c r="U230" s="1">
+        <v>43115.404976851853</v>
+      </c>
+      <c r="V230" s="2">
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="W230">
+        <v>150.63300000000001</v>
+      </c>
+      <c r="X230">
+        <v>152.63900000000001</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z230">
+        <v>2.0059999999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43116.415972222225</v>
       </c>
@@ -6581,8 +11502,29 @@
       <c r="I231" s="2">
         <v>-3.3500000000000002E-2</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T231" s="1">
+        <v>43116.332766203705</v>
+      </c>
+      <c r="U231" s="1">
+        <v>43116.624548611115</v>
+      </c>
+      <c r="V231" s="4">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="W231">
+        <v>152.47300000000001</v>
+      </c>
+      <c r="X231">
+        <v>152.49100000000001</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z231">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43117.415983796294</v>
       </c>
@@ -6607,8 +11549,29 @@
       <c r="I232">
         <v>0.19550000000000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T232" s="1">
+        <v>43117.332997685182</v>
+      </c>
+      <c r="U232" s="1">
+        <v>43117.490752314814</v>
+      </c>
+      <c r="V232" s="2">
+        <v>-0.45850000000000002</v>
+      </c>
+      <c r="W232">
+        <v>152.46799999999999</v>
+      </c>
+      <c r="X232">
+        <v>152.29349999999999</v>
+      </c>
+      <c r="Y232" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z232">
+        <v>-0.17449999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43118.415983796294</v>
       </c>
@@ -6633,8 +11596,29 @@
       <c r="I233">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T233" s="1">
+        <v>43118.333124999997</v>
+      </c>
+      <c r="U233" s="1">
+        <v>43118.624907407408</v>
+      </c>
+      <c r="V233" s="2">
+        <v>-2.1499999999999998E-2</v>
+      </c>
+      <c r="W233">
+        <v>152.3355</v>
+      </c>
+      <c r="X233">
+        <v>153.75899999999999</v>
+      </c>
+      <c r="Y233" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z233">
+        <v>1.4235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43119.415995370371</v>
       </c>
@@ -6659,8 +11643,29 @@
       <c r="I234">
         <v>6.5500000000000003E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T234" s="1">
+        <v>43119.333252314813</v>
+      </c>
+      <c r="U234" s="1">
+        <v>43119.624340277776</v>
+      </c>
+      <c r="V234" s="2">
+        <v>-6.7500000000000004E-2</v>
+      </c>
+      <c r="W234">
+        <v>153.91200000000001</v>
+      </c>
+      <c r="X234">
+        <v>154.27699999999999</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z234">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43122.415972222225</v>
       </c>
@@ -6685,8 +11690,29 @@
       <c r="I235" s="2">
         <v>-2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T235" s="1">
+        <v>43122.332638888889</v>
+      </c>
+      <c r="U235" s="1">
+        <v>43122.624421296299</v>
+      </c>
+      <c r="V235">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="W235">
+        <v>154.37799999999999</v>
+      </c>
+      <c r="X235">
+        <v>153.69149999999999</v>
+      </c>
+      <c r="Y235" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z235">
+        <v>-0.6865</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43123.415983796294</v>
       </c>
@@ -6711,8 +11737,29 @@
       <c r="I236" s="2">
         <v>-0.49199999999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T236" s="1">
+        <v>43123.332870370374</v>
+      </c>
+      <c r="U236" s="1">
+        <v>43123.624652777777</v>
+      </c>
+      <c r="V236" s="2">
+        <v>-0.19</v>
+      </c>
+      <c r="W236">
+        <v>153.614</v>
+      </c>
+      <c r="X236">
+        <v>155.14850000000001</v>
+      </c>
+      <c r="Y236" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z236">
+        <v>1.5345</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43124.415995370371</v>
       </c>
@@ -6737,8 +11784,29 @@
       <c r="I237">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T237" s="1">
+        <v>43124.332997685182</v>
+      </c>
+      <c r="U237" s="1">
+        <v>43124.624780092592</v>
+      </c>
+      <c r="V237">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="W237">
+        <v>155.18100000000001</v>
+      </c>
+      <c r="X237">
+        <v>154.417</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z237">
+        <v>-0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43125.415995370371</v>
       </c>
@@ -6763,8 +11831,29 @@
       <c r="I238">
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T238" s="1">
+        <v>43125.333229166667</v>
+      </c>
+      <c r="U238" s="1">
+        <v>43125.62431712963</v>
+      </c>
+      <c r="V238">
+        <v>0.28149999999999997</v>
+      </c>
+      <c r="W238">
+        <v>154.41900000000001</v>
+      </c>
+      <c r="X238">
+        <v>155.4905</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z238">
+        <v>1.0714999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43126.416006944448</v>
       </c>
@@ -6789,8 +11878,29 @@
       <c r="I239" s="2">
         <v>-0.26100000000000001</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T239" s="1">
+        <v>43126.332766203705</v>
+      </c>
+      <c r="U239" s="1">
+        <v>43126.373854166668</v>
+      </c>
+      <c r="V239" s="2">
+        <v>-0.45750000000000002</v>
+      </c>
+      <c r="W239">
+        <v>155.53800000000001</v>
+      </c>
+      <c r="X239">
+        <v>154.77000000000001</v>
+      </c>
+      <c r="Y239" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z239">
+        <v>-0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43129.415972222225</v>
       </c>
@@ -6815,8 +11925,29 @@
       <c r="I240" s="2">
         <v>-6.5500000000000003E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T240" s="1">
+        <v>43129.332638888889</v>
+      </c>
+      <c r="U240" s="1">
+        <v>43129.624421296299</v>
+      </c>
+      <c r="V240" s="2">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="W240">
+        <v>154.70699999999999</v>
+      </c>
+      <c r="X240">
+        <v>153.68600000000001</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z240">
+        <v>-1.0209999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43130.415983796294</v>
       </c>
@@ -6841,8 +11972,29 @@
       <c r="I241">
         <v>0.63449999999999995</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T241" s="1">
+        <v>43130.332766203705</v>
+      </c>
+      <c r="U241" s="1">
+        <v>43130.624548611115</v>
+      </c>
+      <c r="V241" s="3">
+        <v>0.75949999999999995</v>
+      </c>
+      <c r="W241">
+        <v>153.8295</v>
+      </c>
+      <c r="X241">
+        <v>153.3665</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z241">
+        <v>-0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43131.415983796294</v>
       </c>
@@ -6867,8 +12019,29 @@
       <c r="I242">
         <v>0.1555</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T242" s="1">
+        <v>43131.332997685182</v>
+      </c>
+      <c r="U242" s="1">
+        <v>43131.624780092592</v>
+      </c>
+      <c r="V242" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="W242">
+        <v>153.35300000000001</v>
+      </c>
+      <c r="X242">
+        <v>153.922</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z242">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43132.415983796294</v>
       </c>
@@ -6893,8 +12066,29 @@
       <c r="I243">
         <v>5.6500000000000002E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T243" s="1">
+        <v>43132.333229166667</v>
+      </c>
+      <c r="U243" s="1">
+        <v>43132.62431712963</v>
+      </c>
+      <c r="V243">
+        <v>0.1085</v>
+      </c>
+      <c r="W243">
+        <v>153.93100000000001</v>
+      </c>
+      <c r="X243">
+        <v>155.03100000000001</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z243">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43133.415983796294</v>
       </c>
@@ -6919,8 +12113,29 @@
       <c r="I244" s="2">
         <v>-0.25750000000000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T244" s="1">
+        <v>43133.332766203705</v>
+      </c>
+      <c r="U244" s="1">
+        <v>43133.624548611115</v>
+      </c>
+      <c r="V244">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="W244">
+        <v>154.9555</v>
+      </c>
+      <c r="X244">
+        <v>156.13249999999999</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z244">
+        <v>1.177</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43136.415972222225</v>
       </c>
@@ -6945,8 +12160,29 @@
       <c r="I245" s="2">
         <v>-0.20150000000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T245" s="1">
+        <v>43136.332638888889</v>
+      </c>
+      <c r="U245" s="1">
+        <v>43136.624421296299</v>
+      </c>
+      <c r="V245">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="W245">
+        <v>156.04599999999999</v>
+      </c>
+      <c r="X245">
+        <v>155.44649999999999</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z245">
+        <v>-0.59950000000000003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43137.415983796294</v>
       </c>
@@ -6971,8 +12207,29 @@
       <c r="I246" s="2">
         <v>-0.49249999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T246" s="1">
+        <v>43137.332870370374</v>
+      </c>
+      <c r="U246" s="1">
+        <v>43137.567708333336</v>
+      </c>
+      <c r="V246" s="3">
+        <v>1.085</v>
+      </c>
+      <c r="W246">
+        <v>155.53700000000001</v>
+      </c>
+      <c r="X246">
+        <v>152.45650000000001</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z246">
+        <v>-3.0804999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43138.415995370371</v>
       </c>
@@ -6997,8 +12254,29 @@
       <c r="I247">
         <v>0.35599999999999998</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T247" s="1">
+        <v>43138.333101851851</v>
+      </c>
+      <c r="U247" s="1">
+        <v>43138.387384259258</v>
+      </c>
+      <c r="V247" s="2">
+        <v>-0.46650000000000003</v>
+      </c>
+      <c r="W247">
+        <v>152.346</v>
+      </c>
+      <c r="X247">
+        <v>153.09450000000001</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z247">
+        <v>0.74850000000000005</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43139.416006944448</v>
       </c>
@@ -7023,8 +12301,29 @@
       <c r="I248">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T248" s="1">
+        <v>43139.333229166667</v>
+      </c>
+      <c r="U248" s="1">
+        <v>43139.588900462964</v>
+      </c>
+      <c r="V248" s="2">
+        <v>-0.47599999999999998</v>
+      </c>
+      <c r="W248">
+        <v>152.852</v>
+      </c>
+      <c r="X248">
+        <v>151.72399999999999</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z248">
+        <v>-1.1279999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>43140.416006944448</v>
       </c>
@@ -7049,8 +12348,29 @@
       <c r="I249">
         <v>0.371</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T249" s="1">
+        <v>43140.332662037035</v>
+      </c>
+      <c r="U249" s="1">
+        <v>43140.428611111114</v>
+      </c>
+      <c r="V249" s="2">
+        <v>-0.51100000000000001</v>
+      </c>
+      <c r="W249">
+        <v>151.7765</v>
+      </c>
+      <c r="X249">
+        <v>151.41</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z249">
+        <v>-0.36649999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>43143.415972222225</v>
       </c>
@@ -7075,8 +12395,29 @@
       <c r="I250" s="2">
         <v>-0.48449999999999999</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T250" s="1">
+        <v>43143.332638888889</v>
+      </c>
+      <c r="U250" s="1">
+        <v>43143.624421296299</v>
+      </c>
+      <c r="V250" s="2">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="W250">
+        <v>151.29400000000001</v>
+      </c>
+      <c r="X250">
+        <v>150.48249999999999</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z250">
+        <v>-0.8115</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>43144.415983796294</v>
       </c>
@@ -7101,8 +12442,29 @@
       <c r="I251">
         <v>0.35799999999999998</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T251" s="1">
+        <v>43144.332766203705</v>
+      </c>
+      <c r="U251" s="1">
+        <v>43144.624548611115</v>
+      </c>
+      <c r="V251" s="4">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="W251">
+        <v>150.46700000000001</v>
+      </c>
+      <c r="X251">
+        <v>150.441</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z251">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>43145.415983796294</v>
       </c>
@@ -7127,8 +12489,29 @@
       <c r="I252">
         <v>0.64800000000000002</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T252" s="1">
+        <v>43145.332997685182</v>
+      </c>
+      <c r="U252" s="1">
+        <v>43145.552557870367</v>
+      </c>
+      <c r="V252" s="3">
+        <v>1.0395000000000001</v>
+      </c>
+      <c r="W252">
+        <v>150.34399999999999</v>
+      </c>
+      <c r="X252">
+        <v>149.7105</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z252">
+        <v>-0.63349999999999995</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>43146.415983796294</v>
       </c>
@@ -7153,8 +12536,29 @@
       <c r="I253">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T253" s="1">
+        <v>43146.333229166667</v>
+      </c>
+      <c r="U253" s="1">
+        <v>43146.363206018519</v>
+      </c>
+      <c r="V253" s="2">
+        <v>-0.53400000000000003</v>
+      </c>
+      <c r="W253">
+        <v>149.79150000000001</v>
+      </c>
+      <c r="X253">
+        <v>149.82050000000001</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z253">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>43147.415995370371</v>
       </c>
@@ -7179,8 +12583,29 @@
       <c r="I254" s="2">
         <v>-0.50800000000000001</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T254" s="1">
+        <v>43147.332662037035</v>
+      </c>
+      <c r="U254" s="1">
+        <v>43147.624444444446</v>
+      </c>
+      <c r="V254">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="W254">
+        <v>149.80600000000001</v>
+      </c>
+      <c r="X254">
+        <v>149.59800000000001</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z254">
+        <v>-0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>43150.415972222225</v>
       </c>
@@ -7205,8 +12630,29 @@
       <c r="I255">
         <v>3.0000000000099999E-3</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T255" s="1">
+        <v>43150.332638888889</v>
+      </c>
+      <c r="U255" s="1">
+        <v>43150.624421296299</v>
+      </c>
+      <c r="V255" s="2">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="W255">
+        <v>149.61850000000001</v>
+      </c>
+      <c r="X255">
+        <v>149.196</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z255">
+        <v>-0.42249999999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>43151.415983796294</v>
       </c>
@@ -7231,8 +12677,29 @@
       <c r="I256" s="2">
         <v>-7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T256" s="1">
+        <v>43151.332766203705</v>
+      </c>
+      <c r="U256" s="1">
+        <v>43151.624548611115</v>
+      </c>
+      <c r="V256">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="W256">
+        <v>149.13300000000001</v>
+      </c>
+      <c r="X256">
+        <v>149.227</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z256">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>43152.415995370371</v>
       </c>
@@ -7257,8 +12724,29 @@
       <c r="I257">
         <v>7.85E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T257" s="1">
+        <v>43152.332997685182</v>
+      </c>
+      <c r="U257" s="1">
+        <v>43152.624780092592</v>
+      </c>
+      <c r="V257" s="4">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="W257">
+        <v>149.22749999999999</v>
+      </c>
+      <c r="X257">
+        <v>150.20949999999999</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z257">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>43153.415995370371</v>
       </c>
@@ -7283,8 +12771,29 @@
       <c r="I258">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T258" s="1">
+        <v>43153.333229166667</v>
+      </c>
+      <c r="U258" s="1">
+        <v>43153.62431712963</v>
+      </c>
+      <c r="V258" s="4">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="W258">
+        <v>150.2235</v>
+      </c>
+      <c r="X258">
+        <v>149.875</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z258">
+        <v>-0.34849999999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>43154.415995370371</v>
       </c>
@@ -7309,8 +12818,29 @@
       <c r="I259" s="2">
         <v>-5.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T259" s="1">
+        <v>43154.332766203705</v>
+      </c>
+      <c r="U259" s="1">
+        <v>43154.624548611115</v>
+      </c>
+      <c r="V259" s="2">
+        <v>-0.19750000000000001</v>
+      </c>
+      <c r="W259">
+        <v>149.9965</v>
+      </c>
+      <c r="X259">
+        <v>148.95500000000001</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z259">
+        <v>-1.0415000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>43157.415972222225</v>
       </c>
@@ -7335,8 +12865,29 @@
       <c r="I260">
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T260" s="1">
+        <v>43157.332638888889</v>
+      </c>
+      <c r="U260" s="1">
+        <v>43157.44872685185</v>
+      </c>
+      <c r="V260" s="2">
+        <v>-0.49099999999999999</v>
+      </c>
+      <c r="W260">
+        <v>148.98599999999999</v>
+      </c>
+      <c r="X260">
+        <v>149.58199999999999</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z260">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>43158.415972222225</v>
       </c>
@@ -7361,8 +12912,29 @@
       <c r="I261">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T261" s="1">
+        <v>43158.332766203705</v>
+      </c>
+      <c r="U261" s="1">
+        <v>43158.624548611115</v>
+      </c>
+      <c r="V261" s="2">
+        <v>-0.214</v>
+      </c>
+      <c r="W261">
+        <v>149.30199999999999</v>
+      </c>
+      <c r="X261">
+        <v>149.42850000000001</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z261">
+        <v>0.1265</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>43159.415983796294</v>
       </c>
@@ -7387,8 +12959,29 @@
       <c r="I262">
         <v>0.38150000000000001</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T262" s="1">
+        <v>43159.33289351852</v>
+      </c>
+      <c r="U262" s="1">
+        <v>43159.624675925923</v>
+      </c>
+      <c r="V262" s="4">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="W262">
+        <v>149.3535</v>
+      </c>
+      <c r="X262">
+        <v>149.31800000000001</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z262">
+        <v>-3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>43160.415983796294</v>
       </c>
@@ -7413,8 +13006,29 @@
       <c r="I263" s="2">
         <v>-0.215</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T263" s="1">
+        <v>43160.333124999997</v>
+      </c>
+      <c r="U263" s="1">
+        <v>43160.624907407408</v>
+      </c>
+      <c r="V263" s="2">
+        <v>-0.2215</v>
+      </c>
+      <c r="W263">
+        <v>149.2825</v>
+      </c>
+      <c r="X263">
+        <v>146.71449999999999</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z263">
+        <v>-2.5680000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>43161.415995370371</v>
       </c>
@@ -7439,8 +13053,29 @@
       <c r="I264" s="2">
         <v>-0.49399999999999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T264" s="1">
+        <v>43161.333252314813</v>
+      </c>
+      <c r="U264" s="1">
+        <v>43161.624340277776</v>
+      </c>
+      <c r="V264">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="W264">
+        <v>146.78399999999999</v>
+      </c>
+      <c r="X264">
+        <v>146.15700000000001</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z264">
+        <v>-0.627</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>43164.415972222225</v>
       </c>
@@ -7465,8 +13100,29 @@
       <c r="I265" s="2">
         <v>-1.9E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T265" s="1">
+        <v>43164.332638888889</v>
+      </c>
+      <c r="U265" s="1">
+        <v>43164.624421296299</v>
+      </c>
+      <c r="V265">
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="W265">
+        <v>146.35749999999999</v>
+      </c>
+      <c r="X265">
+        <v>145.8115</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z265">
+        <v>-0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>43165.415983796294</v>
       </c>
@@ -7491,8 +13147,29 @@
       <c r="I266" s="2">
         <v>-0.186</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T266" s="1">
+        <v>43165.332870370374</v>
+      </c>
+      <c r="U266" s="1">
+        <v>43165.624652777777</v>
+      </c>
+      <c r="V266">
+        <v>2.9999999999899998E-3</v>
+      </c>
+      <c r="W266">
+        <v>145.94999999999999</v>
+      </c>
+      <c r="X266">
+        <v>147.072</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z266">
+        <v>1.1220000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>43166.415995370371</v>
       </c>
@@ -7517,8 +13194,29 @@
       <c r="I267">
         <v>0.13750000000000001</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T267" s="1">
+        <v>43166.333101851851</v>
+      </c>
+      <c r="U267" s="1">
+        <v>43166.624884259261</v>
+      </c>
+      <c r="V267">
+        <v>0.1515</v>
+      </c>
+      <c r="W267">
+        <v>147.077</v>
+      </c>
+      <c r="X267">
+        <v>146.8245</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z267">
+        <v>-0.2525</v>
+      </c>
+    </row>
+    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>43167.416006944448</v>
       </c>
@@ -7543,8 +13241,29 @@
       <c r="I268">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T268" s="1">
+        <v>43167.332638888889</v>
+      </c>
+      <c r="U268" s="1">
+        <v>43167.624421296299</v>
+      </c>
+      <c r="V268" s="2">
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="W268">
+        <v>147.37700000000001</v>
+      </c>
+      <c r="X268">
+        <v>147.542</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z268">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>43168.416006944448</v>
       </c>
@@ -7569,8 +13288,29 @@
       <c r="I269">
         <v>5.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T269" s="1">
+        <v>43168.332766203705</v>
+      </c>
+      <c r="U269" s="1">
+        <v>43168.420381944445</v>
+      </c>
+      <c r="V269" s="2">
+        <v>-0.503</v>
+      </c>
+      <c r="W269">
+        <v>147.45599999999999</v>
+      </c>
+      <c r="X269">
+        <v>146.83099999999999</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z269">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>43171.415972222225</v>
       </c>
@@ -7595,8 +13335,29 @@
       <c r="I270">
         <v>0.34200000000000003</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T270" s="1">
+        <v>43171.332638888889</v>
+      </c>
+      <c r="U270" s="1">
+        <v>43171.565393518518</v>
+      </c>
+      <c r="V270" s="2">
+        <v>-0.4985</v>
+      </c>
+      <c r="W270">
+        <v>146.828</v>
+      </c>
+      <c r="X270">
+        <v>148.12549999999999</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z270">
+        <v>1.2975000000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>43172.415972222225</v>
       </c>
@@ -7621,8 +13382,29 @@
       <c r="I271" s="2">
         <v>-0.4955</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T271" s="1">
+        <v>43172.332766203705</v>
+      </c>
+      <c r="U271" s="1">
+        <v>43172.624548611115</v>
+      </c>
+      <c r="V271" s="4">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="W271">
+        <v>147.91399999999999</v>
+      </c>
+      <c r="X271">
+        <v>147.95099999999999</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z271">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>43173.415983796294</v>
       </c>
@@ -7647,8 +13429,29 @@
       <c r="I272" s="2">
         <v>-0.34799999999999998</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T272" s="1">
+        <v>43173.332997685182</v>
+      </c>
+      <c r="U272" s="1">
+        <v>43173.624780092592</v>
+      </c>
+      <c r="V272">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="W272">
+        <v>148.00550000000001</v>
+      </c>
+      <c r="X272">
+        <v>148.76949999999999</v>
+      </c>
+      <c r="Y272" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z272">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>43174.415995370371</v>
       </c>
@@ -7673,8 +13476,29 @@
       <c r="I273" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T273" s="1">
+        <v>43174.333229166667</v>
+      </c>
+      <c r="U273" s="1">
+        <v>43174.62431712963</v>
+      </c>
+      <c r="V273" s="4">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="W273">
+        <v>148.6995</v>
+      </c>
+      <c r="X273">
+        <v>148.47149999999999</v>
+      </c>
+      <c r="Y273" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z273">
+        <v>-0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>43175.416006944448</v>
       </c>
@@ -7699,8 +13523,29 @@
       <c r="I274">
         <v>0.39300000000000002</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T274" s="1">
+        <v>43175.332766203705</v>
+      </c>
+      <c r="U274" s="1">
+        <v>43175.624548611115</v>
+      </c>
+      <c r="V274" s="3">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="W274">
+        <v>148.4725</v>
+      </c>
+      <c r="X274">
+        <v>148.14599999999999</v>
+      </c>
+      <c r="Y274" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z274">
+        <v>-0.32650000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>43178.415972222225</v>
       </c>
@@ -7725,8 +13570,29 @@
       <c r="I275">
         <v>0.36849999999999999</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T275" s="1">
+        <v>43178.332638888889</v>
+      </c>
+      <c r="U275" s="1">
+        <v>43178.624421296299</v>
+      </c>
+      <c r="V275" s="3">
+        <v>0.57050000000000001</v>
+      </c>
+      <c r="W275">
+        <v>148.22399999999999</v>
+      </c>
+      <c r="X275">
+        <v>147.77250000000001</v>
+      </c>
+      <c r="Y275" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z275">
+        <v>-0.45150000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>43179.415972222225</v>
       </c>
@@ -7751,8 +13617,29 @@
       <c r="I276">
         <v>0.31900000000000001</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T276" s="1">
+        <v>43179.332870370374</v>
+      </c>
+      <c r="U276" s="1">
+        <v>43179.624652777777</v>
+      </c>
+      <c r="V276" s="4">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="W276">
+        <v>147.8605</v>
+      </c>
+      <c r="X276">
+        <v>148.72999999999999</v>
+      </c>
+      <c r="Y276" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z276">
+        <v>0.86950000000000005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>43180.415972222225</v>
       </c>
@@ -7780,8 +13667,29 @@
       <c r="J277" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T277" s="1">
+        <v>43180.333101851851</v>
+      </c>
+      <c r="U277" s="1">
+        <v>43180.624884259261</v>
+      </c>
+      <c r="V277" s="2">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="W277">
+        <v>148.72450000000001</v>
+      </c>
+      <c r="X277">
+        <v>149.16</v>
+      </c>
+      <c r="Y277" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z277">
+        <v>0.4355</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>43181.415972222225</v>
       </c>
@@ -7809,8 +13717,29 @@
       <c r="J278" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T278" s="1">
+        <v>43181.333229166667</v>
+      </c>
+      <c r="U278" s="1">
+        <v>43181.62431712963</v>
+      </c>
+      <c r="V278" s="2">
+        <v>-2.35E-2</v>
+      </c>
+      <c r="W278">
+        <v>149.154</v>
+      </c>
+      <c r="X278">
+        <v>149.82050000000001</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z278">
+        <v>0.66649999999999998</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>43182.415983796294</v>
       </c>
@@ -7838,8 +13767,29 @@
       <c r="J279" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T279" s="1">
+        <v>43182.332662037035</v>
+      </c>
+      <c r="U279" s="1">
+        <v>43182.624444444446</v>
+      </c>
+      <c r="V279">
+        <v>0.1085</v>
+      </c>
+      <c r="W279">
+        <v>149.9605</v>
+      </c>
+      <c r="X279">
+        <v>148.00749999999999</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z279">
+        <v>-1.9530000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>43185.415972222225</v>
       </c>
@@ -7867,10 +13817,32 @@
       <c r="J280" t="s">
         <v>11</v>
       </c>
+      <c r="T280" s="1">
+        <v>43185.332638888889</v>
+      </c>
+      <c r="U280" s="1">
+        <v>43185.429976851854</v>
+      </c>
+      <c r="V280" s="2">
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="W280">
+        <v>148.5265</v>
+      </c>
+      <c r="X280">
+        <v>148.23599999999999</v>
+      </c>
+      <c r="Y280" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z280">
+        <v>-0.29049999999999998</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D280"/>
+  <autoFilter ref="Z1:Z280"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>